--- a/Nairobi property.xlsx
+++ b/Nairobi property.xlsx
@@ -627,19 +627,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -675,7 +669,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -686,9 +680,6 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
@@ -696,7 +687,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,16 +997,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1048,10 +1039,10 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
         <v>4</v>
       </c>
       <c r="F2" s="2"/>
@@ -1069,9 +1060,7 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4">
-        <f>IF(B3= "Vacant Land", 0, D3)</f>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="1" t="s">
@@ -1088,9 +1077,7 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4">
-        <f>IF(B4= "Vacant Land", 0, D4)</f>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1" t="s">
@@ -1107,10 +1094,10 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
       <c r="F5" s="2"/>
@@ -1128,10 +1115,10 @@
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1149,10 +1136,10 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>6</v>
       </c>
       <c r="F7" s="2"/>
@@ -1170,10 +1157,10 @@
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="2"/>
@@ -1191,10 +1178,10 @@
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="4">
-        <v>2</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1212,10 +1199,10 @@
       <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="2"/>
@@ -1223,7 +1210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1233,10 +1220,10 @@
       <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4">
-        <v>4</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1244,7 +1231,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1254,10 +1241,10 @@
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1265,7 +1252,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1275,10 +1262,10 @@
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>5</v>
       </c>
       <c r="F13" s="2"/>
@@ -1296,10 +1283,10 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" s="2"/>
@@ -1317,10 +1304,10 @@
       <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>6</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>6</v>
       </c>
       <c r="F15" s="2"/>
@@ -1338,10 +1325,10 @@
       <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>6</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>6</v>
       </c>
       <c r="F16" s="2"/>
@@ -1359,10 +1346,10 @@
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
         <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -1380,10 +1367,10 @@
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -1401,10 +1388,10 @@
       <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -1422,10 +1409,10 @@
       <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
         <v>8</v>
       </c>
       <c r="F20" s="2"/>
@@ -1443,10 +1430,10 @@
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="4">
-        <v>4</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -1464,10 +1451,10 @@
       <c r="C22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="4">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
         <v>2</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -1485,10 +1472,10 @@
       <c r="C23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="4">
-        <v>4</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
         <v>3</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1506,10 +1493,10 @@
       <c r="C24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="4">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -1527,10 +1514,10 @@
       <c r="C25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>5</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="2"/>
@@ -1548,9 +1535,7 @@
       <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="4">
-        <f>IF(B3= "Vacant Land", 0, D3)</f>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="1" t="s">
@@ -1567,10 +1552,10 @@
       <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>6</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>6</v>
       </c>
       <c r="F27" s="2"/>
@@ -1588,10 +1573,10 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="4">
-        <v>8</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
         <v>7</v>
       </c>
       <c r="F28" s="2"/>
@@ -1609,10 +1594,10 @@
       <c r="C29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="4">
-        <v>4</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
         <v>4</v>
       </c>
       <c r="F29" s="2"/>
@@ -1630,10 +1615,10 @@
       <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>5</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>3</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -1651,10 +1636,10 @@
       <c r="C31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>5</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1672,10 +1657,10 @@
       <c r="C32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="4">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4">
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
         <v>2</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -1693,10 +1678,10 @@
       <c r="C33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>5</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -1714,10 +1699,10 @@
       <c r="C34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="4">
-        <v>2</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -1769,10 +1754,10 @@
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
@@ -1790,10 +1775,10 @@
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="4">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4">
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
         <v>3</v>
       </c>
       <c r="F38" s="2"/>
@@ -1828,10 +1813,10 @@
       <c r="C40" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="3" t="s">
@@ -1849,10 +1834,10 @@
       <c r="C41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="4">
-        <v>4</v>
-      </c>
-      <c r="E41" s="4">
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
         <v>3</v>
       </c>
       <c r="F41" s="2"/>
@@ -1870,10 +1855,10 @@
       <c r="C42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="4">
-        <v>4</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
         <v>4</v>
       </c>
       <c r="F42" s="2"/>
@@ -1908,10 +1893,10 @@
       <c r="C44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="4">
-        <v>2</v>
-      </c>
-      <c r="E44" s="4">
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
         <v>2</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -1929,10 +1914,10 @@
       <c r="C45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -1950,10 +1935,10 @@
       <c r="C46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="4">
-        <v>2</v>
-      </c>
-      <c r="E46" s="4">
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -1971,10 +1956,10 @@
       <c r="C47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="4">
-        <v>2</v>
-      </c>
-      <c r="E47" s="4">
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
         <v>1</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -1992,10 +1977,10 @@
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="4">
-        <v>8</v>
-      </c>
-      <c r="E48" s="4">
+      <c r="D48" s="2">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2">
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -2013,10 +1998,10 @@
       <c r="C49" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D49" s="4">
-        <v>4</v>
-      </c>
-      <c r="E49" s="4">
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
         <v>3</v>
       </c>
       <c r="F49" s="3" t="s">
@@ -2034,10 +2019,10 @@
       <c r="C50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="4">
-        <v>2</v>
-      </c>
-      <c r="E50" s="4">
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="3" t="s">
@@ -2055,10 +2040,10 @@
       <c r="C51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="4">
-        <v>4</v>
-      </c>
-      <c r="E51" s="4">
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
@@ -2076,10 +2061,10 @@
       <c r="C52" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>5</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>4</v>
       </c>
       <c r="F52" s="2"/>
@@ -2097,10 +2082,10 @@
       <c r="C53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>5</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>3</v>
       </c>
       <c r="F53" s="2"/>
@@ -2118,10 +2103,10 @@
       <c r="C54" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D54" s="4">
-        <v>3</v>
-      </c>
-      <c r="E54" s="4">
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
         <v>2</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2139,10 +2124,10 @@
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="4">
-        <v>4</v>
-      </c>
-      <c r="E55" s="4">
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2">
         <v>4</v>
       </c>
       <c r="F55" s="2"/>
@@ -2160,10 +2145,10 @@
       <c r="C56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="4">
-        <v>2</v>
-      </c>
-      <c r="E56" s="4">
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
         <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -2181,10 +2166,10 @@
       <c r="C57" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="4">
-        <v>4</v>
-      </c>
-      <c r="E57" s="4">
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2">
         <v>4</v>
       </c>
       <c r="F57" s="2"/>
@@ -2202,10 +2187,10 @@
       <c r="C58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="4">
-        <v>2</v>
-      </c>
-      <c r="E58" s="4">
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
         <v>1</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -2223,10 +2208,10 @@
       <c r="C59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="4">
-        <v>2</v>
-      </c>
-      <c r="E59" s="4">
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -2244,10 +2229,10 @@
       <c r="C60" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D60" s="4">
-        <v>2</v>
-      </c>
-      <c r="E60" s="4">
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
         <v>1</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -2265,10 +2250,10 @@
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="4">
-        <v>3</v>
-      </c>
-      <c r="E61" s="4">
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
         <v>2</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -2286,10 +2271,10 @@
       <c r="C62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="4">
-        <v>2</v>
-      </c>
-      <c r="E62" s="4">
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
         <v>2</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -2307,10 +2292,10 @@
       <c r="C63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="2">
         <v>5</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="2">
         <v>2</v>
       </c>
       <c r="F63" s="3" t="s">
@@ -2328,10 +2313,10 @@
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="4">
-        <v>3</v>
-      </c>
-      <c r="E64" s="4">
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
         <v>2</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -2349,10 +2334,10 @@
       <c r="C65" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="4">
-        <v>2</v>
-      </c>
-      <c r="E65" s="4">
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
         <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -2370,10 +2355,10 @@
       <c r="C66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="4">
-        <v>3</v>
-      </c>
-      <c r="E66" s="4">
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
         <v>2</v>
       </c>
       <c r="F66" s="3" t="s">
@@ -2391,10 +2376,10 @@
       <c r="C67" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D67" s="4">
-        <v>2</v>
-      </c>
-      <c r="E67" s="4">
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
         <v>1</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -2429,10 +2414,10 @@
       <c r="C69" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D69" s="4">
-        <v>4</v>
-      </c>
-      <c r="E69" s="4">
+      <c r="D69" s="2">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2">
         <v>2</v>
       </c>
       <c r="F69" s="3" t="s">
@@ -2450,10 +2435,10 @@
       <c r="C70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D70" s="4">
-        <v>4</v>
-      </c>
-      <c r="E70" s="4">
+      <c r="D70" s="2">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2">
         <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
@@ -2471,10 +2456,10 @@
       <c r="C71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="2">
         <v>5</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="2">
         <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -2492,10 +2477,10 @@
       <c r="C72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="4">
-        <v>4</v>
-      </c>
-      <c r="E72" s="4">
+      <c r="D72" s="2">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2">
         <v>2</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -2513,10 +2498,10 @@
       <c r="C73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="2">
         <v>1</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="2">
         <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -2534,10 +2519,10 @@
       <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="2">
         <v>1</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E74" s="2">
         <v>1</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -2555,10 +2540,10 @@
       <c r="C75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D75" s="4">
-        <v>2</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2">
         <v>2</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -2593,10 +2578,10 @@
       <c r="C77" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="4">
-        <v>3</v>
-      </c>
-      <c r="E77" s="4">
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
         <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -2665,10 +2650,10 @@
       <c r="C81" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D81" s="4">
-        <v>4</v>
-      </c>
-      <c r="E81" s="4">
+      <c r="D81" s="2">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2">
         <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -2688,10 +2673,10 @@
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="4">
-        <v>8</v>
-      </c>
-      <c r="E82" s="4">
+      <c r="D82" s="2">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2">
         <v>7</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -2709,10 +2694,10 @@
       <c r="C83" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="4">
-        <v>2</v>
-      </c>
-      <c r="E83" s="4">
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2">
         <v>2</v>
       </c>
       <c r="F83" s="2"/>
@@ -2730,10 +2715,10 @@
       <c r="C84" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="2">
         <v>5</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E84" s="2">
         <v>5</v>
       </c>
       <c r="F84" s="2"/>
@@ -2785,10 +2770,10 @@
       <c r="C87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D87" s="4">
-        <v>2</v>
-      </c>
-      <c r="E87" s="4">
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2">
         <v>2</v>
       </c>
       <c r="F87" s="2"/>
@@ -2804,10 +2789,10 @@
       <c r="C88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="4">
-        <v>4</v>
-      </c>
-      <c r="E88" s="4">
+      <c r="D88" s="2">
+        <v>4</v>
+      </c>
+      <c r="E88" s="2">
         <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
@@ -2825,10 +2810,10 @@
       <c r="C89" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D89" s="4">
-        <v>4</v>
-      </c>
-      <c r="E89" s="4">
+      <c r="D89" s="2">
+        <v>4</v>
+      </c>
+      <c r="E89" s="2">
         <v>2</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -2846,10 +2831,10 @@
       <c r="C90" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D90" s="4">
-        <v>3</v>
-      </c>
-      <c r="E90" s="4">
+      <c r="D90" s="2">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
         <v>2</v>
       </c>
       <c r="F90" s="2"/>
@@ -2884,10 +2869,10 @@
       <c r="C92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="2">
         <v>6</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="2">
         <v>6</v>
       </c>
       <c r="F92" s="2"/>
@@ -2905,10 +2890,10 @@
       <c r="C93" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="2">
         <v>5</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="2">
         <v>5</v>
       </c>
       <c r="F93" s="3" t="s">
@@ -2926,10 +2911,10 @@
       <c r="C94" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D94" s="4">
-        <v>2</v>
-      </c>
-      <c r="E94" s="4">
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2">
         <v>1</v>
       </c>
       <c r="F94" s="2"/>
@@ -2947,10 +2932,10 @@
       <c r="C95" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="4">
-        <v>4</v>
-      </c>
-      <c r="E95" s="4">
+      <c r="D95" s="2">
+        <v>4</v>
+      </c>
+      <c r="E95" s="2">
         <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -2968,13 +2953,13 @@
       <c r="C96" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="2">
         <v>1</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E96" s="2">
         <v>1</v>
       </c>
-      <c r="F96" s="4">
+      <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
@@ -2991,10 +2976,10 @@
       <c r="C97" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="4">
-        <v>4</v>
-      </c>
-      <c r="E97" s="4">
+      <c r="D97" s="2">
+        <v>4</v>
+      </c>
+      <c r="E97" s="2">
         <v>4</v>
       </c>
       <c r="F97" s="2"/>
@@ -3027,10 +3012,10 @@
       <c r="C99" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="4">
-        <v>3</v>
-      </c>
-      <c r="E99" s="4">
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
         <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
@@ -3048,10 +3033,10 @@
       <c r="C100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D100" s="4">
-        <v>4</v>
-      </c>
-      <c r="E100" s="4">
+      <c r="D100" s="2">
+        <v>4</v>
+      </c>
+      <c r="E100" s="2">
         <v>2</v>
       </c>
       <c r="F100" s="2"/>
@@ -3069,10 +3054,10 @@
       <c r="C101" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="4">
-        <v>4</v>
-      </c>
-      <c r="E101" s="4">
+      <c r="D101" s="2">
+        <v>4</v>
+      </c>
+      <c r="E101" s="2">
         <v>4</v>
       </c>
       <c r="F101" s="2"/>
@@ -3088,10 +3073,10 @@
       <c r="C102" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="2">
         <v>5</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="2">
         <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
@@ -3109,10 +3094,10 @@
       <c r="C103" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="4">
-        <v>3</v>
-      </c>
-      <c r="E103" s="4">
+      <c r="D103" s="2">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2">
         <v>2</v>
       </c>
       <c r="F103" s="3" t="s">
@@ -3130,10 +3115,10 @@
       <c r="C104" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="4">
-        <v>2</v>
-      </c>
-      <c r="E104" s="4">
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2">
         <v>1</v>
       </c>
       <c r="F104" s="3" t="s">
@@ -3151,10 +3136,10 @@
       <c r="C105" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D105" s="4">
-        <v>3</v>
-      </c>
-      <c r="E105" s="4">
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2">
         <v>2</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -3172,10 +3157,10 @@
       <c r="C106" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="2">
         <v>5</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E106" s="2">
         <v>2</v>
       </c>
       <c r="F106" s="3" t="s">
@@ -3193,10 +3178,10 @@
       <c r="C107" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="4">
-        <v>4</v>
-      </c>
-      <c r="E107" s="4">
+      <c r="D107" s="2">
+        <v>4</v>
+      </c>
+      <c r="E107" s="2">
         <v>3</v>
       </c>
       <c r="F107" s="3" t="s">
@@ -3214,10 +3199,10 @@
       <c r="C108" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D108" s="4">
-        <v>2</v>
-      </c>
-      <c r="E108" s="4">
+      <c r="D108" s="2">
+        <v>2</v>
+      </c>
+      <c r="E108" s="2">
         <v>1</v>
       </c>
       <c r="F108" s="3" t="s">
@@ -3235,10 +3220,10 @@
       <c r="C109" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="4">
-        <v>8</v>
-      </c>
-      <c r="E109" s="4">
+      <c r="D109" s="2">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2">
         <v>7</v>
       </c>
       <c r="F109" s="2"/>
@@ -3256,10 +3241,10 @@
       <c r="C110" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D110" s="4">
-        <v>4</v>
-      </c>
-      <c r="E110" s="4">
+      <c r="D110" s="2">
+        <v>4</v>
+      </c>
+      <c r="E110" s="2">
         <v>4</v>
       </c>
       <c r="F110" s="2"/>
@@ -3277,10 +3262,10 @@
       <c r="C111" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D111" s="4">
-        <v>3</v>
-      </c>
-      <c r="E111" s="4">
+      <c r="D111" s="2">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2">
         <v>2</v>
       </c>
       <c r="F111" s="3" t="s">
@@ -3298,10 +3283,10 @@
       <c r="C112" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="2">
         <v>5</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="2">
         <v>3</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -3319,10 +3304,10 @@
       <c r="C113" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D113" s="4">
-        <v>4</v>
-      </c>
-      <c r="E113" s="4">
+      <c r="D113" s="2">
+        <v>4</v>
+      </c>
+      <c r="E113" s="2">
         <v>3</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -3340,10 +3325,10 @@
       <c r="C114" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D114" s="4">
-        <v>4</v>
-      </c>
-      <c r="E114" s="4">
+      <c r="D114" s="2">
+        <v>4</v>
+      </c>
+      <c r="E114" s="2">
         <v>3</v>
       </c>
       <c r="F114" s="2"/>
@@ -3361,10 +3346,10 @@
       <c r="C115" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D115" s="4">
-        <v>2</v>
-      </c>
-      <c r="E115" s="4">
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+      <c r="E115" s="2">
         <v>2</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -3382,10 +3367,10 @@
       <c r="C116" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="2">
         <v>5</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="2">
         <v>4</v>
       </c>
       <c r="F116" s="2"/>
@@ -3403,10 +3388,10 @@
       <c r="C117" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="2">
         <v>5</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="2">
         <v>3</v>
       </c>
       <c r="F117" s="2"/>
@@ -3424,10 +3409,10 @@
       <c r="C118" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="2">
         <v>5</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="2">
         <v>5</v>
       </c>
       <c r="F118" s="2"/>
@@ -3445,10 +3430,10 @@
       <c r="C119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="2">
         <v>6</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="2">
         <v>6</v>
       </c>
       <c r="F119" s="2"/>
@@ -3466,10 +3451,10 @@
       <c r="C120" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D120" s="4">
-        <v>3</v>
-      </c>
-      <c r="E120" s="4">
+      <c r="D120" s="2">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2">
         <v>2</v>
       </c>
       <c r="F120" s="3" t="s">
@@ -3487,10 +3472,10 @@
       <c r="C121" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D121" s="4">
-        <v>4</v>
-      </c>
-      <c r="E121" s="4">
+      <c r="D121" s="2">
+        <v>4</v>
+      </c>
+      <c r="E121" s="2">
         <v>4</v>
       </c>
       <c r="F121" s="2"/>
@@ -3508,7 +3493,7 @@
       <c r="C122" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="2">
         <v>4</v>
       </c>
       <c r="E122" s="2"/>
@@ -3525,10 +3510,10 @@
       <c r="C123" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D123" s="4">
-        <v>3</v>
-      </c>
-      <c r="E123" s="4">
+      <c r="D123" s="2">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2">
         <v>2</v>
       </c>
       <c r="F123" s="2"/>
@@ -3544,10 +3529,10 @@
       <c r="C124" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D124" s="4">
-        <v>3</v>
-      </c>
-      <c r="E124" s="4">
+      <c r="D124" s="2">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2">
         <v>2</v>
       </c>
       <c r="F124" s="2"/>
@@ -3563,10 +3548,10 @@
       <c r="C125" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="4">
+      <c r="D125" s="2">
         <v>5</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="2">
         <v>5</v>
       </c>
       <c r="F125" s="2"/>
@@ -3597,10 +3582,10 @@
       <c r="C127" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D127" s="4">
+      <c r="D127" s="2">
         <v>5</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="2">
         <v>5</v>
       </c>
       <c r="F127" s="2"/>
@@ -3616,10 +3601,10 @@
       <c r="C128" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D128" s="4">
+      <c r="D128" s="2">
         <v>5</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E128" s="2">
         <v>2</v>
       </c>
       <c r="F128" s="2"/>
@@ -3635,10 +3620,10 @@
       <c r="C129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="4">
-        <v>3</v>
-      </c>
-      <c r="E129" s="4">
+      <c r="D129" s="2">
+        <v>3</v>
+      </c>
+      <c r="E129" s="2">
         <v>2</v>
       </c>
       <c r="F129" s="2"/>
@@ -3654,10 +3639,10 @@
       <c r="C130" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="4">
-        <v>3</v>
-      </c>
-      <c r="E130" s="4">
+      <c r="D130" s="2">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2">
         <v>2</v>
       </c>
       <c r="F130" s="2"/>
@@ -3673,10 +3658,10 @@
       <c r="C131" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="4">
-        <v>3</v>
-      </c>
-      <c r="E131" s="4">
+      <c r="D131" s="2">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2">
         <v>2</v>
       </c>
       <c r="F131" s="2"/>
@@ -3692,10 +3677,10 @@
       <c r="C132" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D132" s="4">
-        <v>3</v>
-      </c>
-      <c r="E132" s="4">
+      <c r="D132" s="2">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2">
         <v>3</v>
       </c>
       <c r="F132" s="2"/>
@@ -3711,10 +3696,10 @@
       <c r="C133" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="4">
+      <c r="D133" s="2">
         <v>6</v>
       </c>
-      <c r="E133" s="4">
+      <c r="E133" s="2">
         <v>6</v>
       </c>
       <c r="F133" s="3" t="s">
@@ -3732,10 +3717,10 @@
       <c r="C134" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D134" s="4">
+      <c r="D134" s="2">
         <v>5</v>
       </c>
-      <c r="E134" s="4">
+      <c r="E134" s="2">
         <v>2</v>
       </c>
       <c r="F134" s="3" t="s">
@@ -3753,10 +3738,10 @@
       <c r="C135" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D135" s="4">
-        <v>2</v>
-      </c>
-      <c r="E135" s="4">
+      <c r="D135" s="2">
+        <v>2</v>
+      </c>
+      <c r="E135" s="2">
         <v>1</v>
       </c>
       <c r="F135" s="3" t="s">
@@ -3774,10 +3759,10 @@
       <c r="C136" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D136" s="4">
-        <v>3</v>
-      </c>
-      <c r="E136" s="4">
+      <c r="D136" s="2">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2">
         <v>2</v>
       </c>
       <c r="F136" s="3" t="s">
@@ -3795,10 +3780,10 @@
       <c r="C137" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="4">
-        <v>3</v>
-      </c>
-      <c r="E137" s="4">
+      <c r="D137" s="2">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2">
         <v>2</v>
       </c>
       <c r="F137" s="3" t="s">
@@ -3816,10 +3801,10 @@
       <c r="C138" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D138" s="4">
-        <v>2</v>
-      </c>
-      <c r="E138" s="4">
+      <c r="D138" s="2">
+        <v>2</v>
+      </c>
+      <c r="E138" s="2">
         <v>1</v>
       </c>
       <c r="F138" s="3" t="s">
@@ -3837,10 +3822,10 @@
       <c r="C139" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D139" s="4">
-        <v>2</v>
-      </c>
-      <c r="E139" s="4">
+      <c r="D139" s="2">
+        <v>2</v>
+      </c>
+      <c r="E139" s="2">
         <v>1</v>
       </c>
       <c r="F139" s="3" t="s">
@@ -3858,10 +3843,10 @@
       <c r="C140" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="2">
         <v>1</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E140" s="2">
         <v>1</v>
       </c>
       <c r="F140" s="3" t="s">
@@ -3879,10 +3864,10 @@
       <c r="C141" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D141" s="4">
-        <v>3</v>
-      </c>
-      <c r="E141" s="4">
+      <c r="D141" s="2">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2">
         <v>2</v>
       </c>
       <c r="F141" s="2"/>
@@ -3900,10 +3885,10 @@
       <c r="C142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="2">
         <v>6</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E142" s="2">
         <v>6</v>
       </c>
       <c r="F142" s="2"/>
@@ -3921,10 +3906,10 @@
       <c r="C143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D143" s="4">
-        <v>4</v>
-      </c>
-      <c r="E143" s="4">
+      <c r="D143" s="2">
+        <v>4</v>
+      </c>
+      <c r="E143" s="2">
         <v>4</v>
       </c>
       <c r="F143" s="3" t="s">
@@ -3942,10 +3927,10 @@
       <c r="C144" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D144" s="4">
-        <v>3</v>
-      </c>
-      <c r="E144" s="4">
+      <c r="D144" s="2">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2">
         <v>2</v>
       </c>
       <c r="F144" s="2"/>
@@ -3961,10 +3946,10 @@
       <c r="C145" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D145" s="4">
-        <v>4</v>
-      </c>
-      <c r="E145" s="4">
+      <c r="D145" s="2">
+        <v>4</v>
+      </c>
+      <c r="E145" s="2">
         <v>4</v>
       </c>
       <c r="F145" s="2"/>
@@ -3980,10 +3965,10 @@
       <c r="C146" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="4">
-        <v>2</v>
-      </c>
-      <c r="E146" s="4">
+      <c r="D146" s="2">
+        <v>2</v>
+      </c>
+      <c r="E146" s="2">
         <v>1</v>
       </c>
       <c r="F146" s="2"/>
@@ -3999,10 +3984,10 @@
       <c r="C147" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D147" s="4">
+      <c r="D147" s="2">
         <v>5</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E147" s="2">
         <v>2</v>
       </c>
       <c r="F147" s="2"/>
@@ -4035,10 +4020,10 @@
       <c r="C149" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D149" s="4">
-        <v>4</v>
-      </c>
-      <c r="E149" s="4">
+      <c r="D149" s="2">
+        <v>4</v>
+      </c>
+      <c r="E149" s="2">
         <v>2</v>
       </c>
       <c r="F149" s="3" t="s">
@@ -4056,10 +4041,10 @@
       <c r="C150" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D150" s="4">
-        <v>4</v>
-      </c>
-      <c r="E150" s="4">
+      <c r="D150" s="2">
+        <v>4</v>
+      </c>
+      <c r="E150" s="2">
         <v>4</v>
       </c>
       <c r="F150" s="2"/>
@@ -4075,10 +4060,10 @@
       <c r="C151" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D151" s="4">
-        <v>2</v>
-      </c>
-      <c r="E151" s="4">
+      <c r="D151" s="2">
+        <v>2</v>
+      </c>
+      <c r="E151" s="2">
         <v>1</v>
       </c>
       <c r="F151" s="3" t="s">
@@ -4096,10 +4081,10 @@
       <c r="C152" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D152" s="4">
+      <c r="D152" s="2">
         <v>5</v>
       </c>
-      <c r="E152" s="4">
+      <c r="E152" s="2">
         <v>5</v>
       </c>
       <c r="F152" s="2"/>
@@ -4115,10 +4100,10 @@
       <c r="C153" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D153" s="4">
-        <v>3</v>
-      </c>
-      <c r="E153" s="4">
+      <c r="D153" s="2">
+        <v>3</v>
+      </c>
+      <c r="E153" s="2">
         <v>3</v>
       </c>
       <c r="F153" s="2"/>
@@ -4151,10 +4136,10 @@
       <c r="C155" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="4">
+      <c r="D155" s="2">
         <v>5</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E155" s="2">
         <v>5</v>
       </c>
       <c r="F155" s="2"/>
@@ -4170,10 +4155,10 @@
       <c r="C156" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D156" s="4">
-        <v>4</v>
-      </c>
-      <c r="E156" s="4">
+      <c r="D156" s="2">
+        <v>4</v>
+      </c>
+      <c r="E156" s="2">
         <v>2</v>
       </c>
       <c r="F156" s="3" t="s">
@@ -4191,10 +4176,10 @@
       <c r="C157" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D157" s="4">
-        <v>2</v>
-      </c>
-      <c r="E157" s="4">
+      <c r="D157" s="2">
+        <v>2</v>
+      </c>
+      <c r="E157" s="2">
         <v>2</v>
       </c>
       <c r="F157" s="3" t="s">
@@ -4212,10 +4197,10 @@
       <c r="C158" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D158" s="4">
-        <v>3</v>
-      </c>
-      <c r="E158" s="4">
+      <c r="D158" s="2">
+        <v>3</v>
+      </c>
+      <c r="E158" s="2">
         <v>2</v>
       </c>
       <c r="F158" s="2"/>
@@ -4231,10 +4216,10 @@
       <c r="C159" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D159" s="4">
+      <c r="D159" s="2">
         <v>5</v>
       </c>
-      <c r="E159" s="4">
+      <c r="E159" s="2">
         <v>5</v>
       </c>
       <c r="F159" s="2"/>
@@ -4250,10 +4235,10 @@
       <c r="C160" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D160" s="4">
-        <v>2</v>
-      </c>
-      <c r="E160" s="4">
+      <c r="D160" s="2">
+        <v>2</v>
+      </c>
+      <c r="E160" s="2">
         <v>2</v>
       </c>
       <c r="F160" s="3" t="s">
@@ -4271,10 +4256,10 @@
       <c r="C161" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D161" s="4">
-        <v>3</v>
-      </c>
-      <c r="E161" s="4">
+      <c r="D161" s="2">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2">
         <v>2</v>
       </c>
       <c r="F161" s="2"/>
@@ -4290,10 +4275,10 @@
       <c r="C162" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D162" s="4">
-        <v>4</v>
-      </c>
-      <c r="E162" s="4">
+      <c r="D162" s="2">
+        <v>4</v>
+      </c>
+      <c r="E162" s="2">
         <v>3</v>
       </c>
       <c r="F162" s="2"/>
@@ -4309,10 +4294,10 @@
       <c r="C163" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D163" s="4">
-        <v>4</v>
-      </c>
-      <c r="E163" s="4">
+      <c r="D163" s="2">
+        <v>4</v>
+      </c>
+      <c r="E163" s="2">
         <v>3</v>
       </c>
       <c r="F163" s="2"/>
@@ -4328,10 +4313,10 @@
       <c r="C164" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D164" s="4">
-        <v>3</v>
-      </c>
-      <c r="E164" s="4">
+      <c r="D164" s="2">
+        <v>3</v>
+      </c>
+      <c r="E164" s="2">
         <v>3</v>
       </c>
       <c r="F164" s="3" t="s">
@@ -4349,10 +4334,10 @@
       <c r="C165" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D165" s="4">
-        <v>2</v>
-      </c>
-      <c r="E165" s="4">
+      <c r="D165" s="2">
+        <v>2</v>
+      </c>
+      <c r="E165" s="2">
         <v>1</v>
       </c>
       <c r="F165" s="2"/>
@@ -4368,7 +4353,7 @@
       <c r="C166" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D166" s="4">
+      <c r="D166" s="2">
         <v>1</v>
       </c>
       <c r="E166" s="2"/>
@@ -4387,10 +4372,10 @@
       <c r="C167" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D167" s="4">
+      <c r="D167" s="2">
         <v>1</v>
       </c>
-      <c r="E167" s="4">
+      <c r="E167" s="2">
         <v>1</v>
       </c>
       <c r="F167" s="3" t="s">
@@ -4408,10 +4393,10 @@
       <c r="C168" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D168" s="4">
+      <c r="D168" s="2">
         <v>1</v>
       </c>
-      <c r="E168" s="4">
+      <c r="E168" s="2">
         <v>1</v>
       </c>
       <c r="F168" s="3" t="s">
@@ -4429,10 +4414,10 @@
       <c r="C169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D169" s="4">
-        <v>2</v>
-      </c>
-      <c r="E169" s="4">
+      <c r="D169" s="2">
+        <v>2</v>
+      </c>
+      <c r="E169" s="2">
         <v>1</v>
       </c>
       <c r="F169" s="2"/>
@@ -4448,10 +4433,10 @@
       <c r="C170" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D170" s="4">
+      <c r="D170" s="2">
         <v>5</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="2">
         <v>5</v>
       </c>
       <c r="F170" s="3" t="s">
@@ -4469,10 +4454,10 @@
       <c r="C171" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D171" s="4">
-        <v>3</v>
-      </c>
-      <c r="E171" s="4">
+      <c r="D171" s="2">
+        <v>3</v>
+      </c>
+      <c r="E171" s="2">
         <v>2</v>
       </c>
       <c r="F171" s="2"/>
@@ -4490,10 +4475,10 @@
       <c r="C172" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D172" s="4">
-        <v>4</v>
-      </c>
-      <c r="E172" s="4">
+      <c r="D172" s="2">
+        <v>4</v>
+      </c>
+      <c r="E172" s="2">
         <v>5</v>
       </c>
       <c r="F172" s="2"/>
@@ -4509,10 +4494,10 @@
       <c r="C173" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D173" s="4">
-        <v>2</v>
-      </c>
-      <c r="E173" s="4">
+      <c r="D173" s="2">
+        <v>2</v>
+      </c>
+      <c r="E173" s="2">
         <v>1</v>
       </c>
       <c r="F173" s="2"/>
@@ -4530,10 +4515,10 @@
       <c r="C174" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D174" s="4">
+      <c r="D174" s="2">
         <v>5</v>
       </c>
-      <c r="E174" s="4">
+      <c r="E174" s="2">
         <v>4</v>
       </c>
       <c r="F174" s="3" t="s">
@@ -4551,10 +4536,10 @@
       <c r="C175" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D175" s="4">
-        <v>2</v>
-      </c>
-      <c r="E175" s="4">
+      <c r="D175" s="2">
+        <v>2</v>
+      </c>
+      <c r="E175" s="2">
         <v>2</v>
       </c>
       <c r="F175" s="2"/>
@@ -4589,10 +4574,10 @@
       <c r="C177" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D177" s="4">
+      <c r="D177" s="2">
         <v>5</v>
       </c>
-      <c r="E177" s="4">
+      <c r="E177" s="2">
         <v>5</v>
       </c>
       <c r="F177" s="2"/>
@@ -4608,10 +4593,10 @@
       <c r="C178" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D178" s="4">
-        <v>2</v>
-      </c>
-      <c r="E178" s="4">
+      <c r="D178" s="2">
+        <v>2</v>
+      </c>
+      <c r="E178" s="2">
         <v>2</v>
       </c>
       <c r="F178" s="2"/>
@@ -4627,10 +4612,10 @@
       <c r="C179" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D179" s="4">
+      <c r="D179" s="2">
         <v>5</v>
       </c>
-      <c r="E179" s="4">
+      <c r="E179" s="2">
         <v>5</v>
       </c>
       <c r="F179" s="2"/>
@@ -4646,10 +4631,10 @@
       <c r="C180" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D180" s="4">
-        <v>2</v>
-      </c>
-      <c r="E180" s="4">
+      <c r="D180" s="2">
+        <v>2</v>
+      </c>
+      <c r="E180" s="2">
         <v>3</v>
       </c>
       <c r="F180" s="3" t="s">
@@ -4667,10 +4652,10 @@
       <c r="C181" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D181" s="4">
-        <v>2</v>
-      </c>
-      <c r="E181" s="4">
+      <c r="D181" s="2">
+        <v>2</v>
+      </c>
+      <c r="E181" s="2">
         <v>2</v>
       </c>
       <c r="F181" s="2"/>
@@ -4686,10 +4671,10 @@
       <c r="C182" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D182" s="4">
+      <c r="D182" s="2">
         <v>1</v>
       </c>
-      <c r="E182" s="4">
+      <c r="E182" s="2">
         <v>1</v>
       </c>
       <c r="F182" s="3" t="s">
@@ -4707,10 +4692,10 @@
       <c r="C183" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D183" s="4">
-        <v>3</v>
-      </c>
-      <c r="E183" s="4">
+      <c r="D183" s="2">
+        <v>3</v>
+      </c>
+      <c r="E183" s="2">
         <v>3</v>
       </c>
       <c r="F183" s="2"/>
@@ -4726,10 +4711,10 @@
       <c r="C184" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D184" s="4">
-        <v>4</v>
-      </c>
-      <c r="E184" s="4">
+      <c r="D184" s="2">
+        <v>4</v>
+      </c>
+      <c r="E184" s="2">
         <v>4</v>
       </c>
       <c r="F184" s="2"/>
@@ -4762,10 +4747,10 @@
       <c r="C186" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D186" s="4">
-        <v>4</v>
-      </c>
-      <c r="E186" s="4">
+      <c r="D186" s="2">
+        <v>4</v>
+      </c>
+      <c r="E186" s="2">
         <v>2</v>
       </c>
       <c r="F186" s="2"/>
@@ -4781,10 +4766,10 @@
       <c r="C187" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D187" s="4">
-        <v>4</v>
-      </c>
-      <c r="E187" s="4">
+      <c r="D187" s="2">
+        <v>4</v>
+      </c>
+      <c r="E187" s="2">
         <v>4</v>
       </c>
       <c r="F187" s="2"/>
@@ -4800,10 +4785,10 @@
       <c r="C188" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D188" s="4">
+      <c r="D188" s="2">
         <v>5</v>
       </c>
-      <c r="E188" s="4">
+      <c r="E188" s="2">
         <v>5</v>
       </c>
       <c r="F188" s="2"/>
@@ -4819,10 +4804,10 @@
       <c r="C189" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D189" s="4">
+      <c r="D189" s="2">
         <v>6</v>
       </c>
-      <c r="E189" s="4">
+      <c r="E189" s="2">
         <v>6</v>
       </c>
       <c r="F189" s="2"/>
@@ -4840,10 +4825,10 @@
       <c r="C190" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D190" s="4">
-        <v>2</v>
-      </c>
-      <c r="E190" s="4">
+      <c r="D190" s="2">
+        <v>2</v>
+      </c>
+      <c r="E190" s="2">
         <v>2</v>
       </c>
       <c r="F190" s="3" t="s">
@@ -4861,10 +4846,10 @@
       <c r="C191" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D191" s="4">
+      <c r="D191" s="2">
         <v>1</v>
       </c>
-      <c r="E191" s="4">
+      <c r="E191" s="2">
         <v>1</v>
       </c>
       <c r="F191" s="3" t="s">
@@ -4882,10 +4867,10 @@
       <c r="C192" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D192" s="4">
-        <v>2</v>
-      </c>
-      <c r="E192" s="4">
+      <c r="D192" s="2">
+        <v>2</v>
+      </c>
+      <c r="E192" s="2">
         <v>2</v>
       </c>
       <c r="F192" s="3" t="s">
@@ -4903,10 +4888,10 @@
       <c r="C193" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D193" s="4">
-        <v>3</v>
-      </c>
-      <c r="E193" s="4">
+      <c r="D193" s="2">
+        <v>3</v>
+      </c>
+      <c r="E193" s="2">
         <v>4</v>
       </c>
       <c r="F193" s="3" t="s">
@@ -4924,10 +4909,10 @@
       <c r="C194" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D194" s="4">
+      <c r="D194" s="2">
         <v>1</v>
       </c>
-      <c r="E194" s="4">
+      <c r="E194" s="2">
         <v>1</v>
       </c>
       <c r="F194" s="3" t="s">
@@ -4945,10 +4930,10 @@
       <c r="C195" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D195" s="4">
-        <v>2</v>
-      </c>
-      <c r="E195" s="4">
+      <c r="D195" s="2">
+        <v>2</v>
+      </c>
+      <c r="E195" s="2">
         <v>2</v>
       </c>
       <c r="F195" s="2"/>
@@ -4964,10 +4949,10 @@
       <c r="C196" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D196" s="4">
-        <v>4</v>
-      </c>
-      <c r="E196" s="4">
+      <c r="D196" s="2">
+        <v>4</v>
+      </c>
+      <c r="E196" s="2">
         <v>4</v>
       </c>
       <c r="F196" s="3" t="s">
@@ -4985,10 +4970,10 @@
       <c r="C197" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D197" s="4">
-        <v>2</v>
-      </c>
-      <c r="E197" s="4">
+      <c r="D197" s="2">
+        <v>2</v>
+      </c>
+      <c r="E197" s="2">
         <v>2</v>
       </c>
       <c r="F197" s="2"/>
@@ -5004,10 +4989,10 @@
       <c r="C198" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D198" s="4">
-        <v>2</v>
-      </c>
-      <c r="E198" s="4">
+      <c r="D198" s="2">
+        <v>2</v>
+      </c>
+      <c r="E198" s="2">
         <v>1</v>
       </c>
       <c r="F198" s="3" t="s">
@@ -5025,10 +5010,10 @@
       <c r="C199" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D199" s="4">
-        <v>4</v>
-      </c>
-      <c r="E199" s="4">
+      <c r="D199" s="2">
+        <v>4</v>
+      </c>
+      <c r="E199" s="2">
         <v>3</v>
       </c>
       <c r="F199" s="2"/>
@@ -5046,10 +5031,10 @@
       <c r="C200" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D200" s="4">
+      <c r="D200" s="2">
         <v>1</v>
       </c>
-      <c r="E200" s="4">
+      <c r="E200" s="2">
         <v>1</v>
       </c>
       <c r="F200" s="2"/>
@@ -5065,10 +5050,10 @@
       <c r="C201" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D201" s="4">
+      <c r="D201" s="2">
         <v>1</v>
       </c>
-      <c r="E201" s="4">
+      <c r="E201" s="2">
         <v>1</v>
       </c>
       <c r="F201" s="3" t="s">
@@ -5086,10 +5071,10 @@
       <c r="C202" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D202" s="4">
-        <v>8</v>
-      </c>
-      <c r="E202" s="4">
+      <c r="D202" s="2">
+        <v>8</v>
+      </c>
+      <c r="E202" s="2">
         <v>7</v>
       </c>
       <c r="F202" s="2"/>
@@ -5107,10 +5092,10 @@
       <c r="C203" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D203" s="4">
-        <v>2</v>
-      </c>
-      <c r="E203" s="4">
+      <c r="D203" s="2">
+        <v>2</v>
+      </c>
+      <c r="E203" s="2">
         <v>2</v>
       </c>
       <c r="F203" s="2"/>
@@ -5126,10 +5111,10 @@
       <c r="C204" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D204" s="4">
-        <v>2</v>
-      </c>
-      <c r="E204" s="4">
+      <c r="D204" s="2">
+        <v>2</v>
+      </c>
+      <c r="E204" s="2">
         <v>1</v>
       </c>
       <c r="F204" s="3" t="s">
@@ -5147,10 +5132,10 @@
       <c r="C205" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D205" s="4">
-        <v>4</v>
-      </c>
-      <c r="E205" s="4">
+      <c r="D205" s="2">
+        <v>4</v>
+      </c>
+      <c r="E205" s="2">
         <v>3</v>
       </c>
       <c r="F205" s="3" t="s">

--- a/Nairobi property.xlsx
+++ b/Nairobi property.xlsx
@@ -1,20 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremiah Muraguri\Desktop\Nairobi_property\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6135759-6847-427B-8151-859FA984E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Nairobi propertyprices - Sheet1"/>
+    <sheet name="Nairobi propertyprices - Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cleaned worksheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="299">
   <si>
     <t>Price</t>
   </si>
@@ -620,13 +638,303 @@
   </si>
   <si>
     <t>234 mÂ²</t>
+  </si>
+  <si>
+    <t>Price(Cleaned)</t>
+  </si>
+  <si>
+    <t>350 000 000</t>
+  </si>
+  <si>
+    <t>30 000 000</t>
+  </si>
+  <si>
+    <t>325 000 000</t>
+  </si>
+  <si>
+    <t>80 000 000</t>
+  </si>
+  <si>
+    <t>25 500 000</t>
+  </si>
+  <si>
+    <t>300 000 000</t>
+  </si>
+  <si>
+    <t>160 000 000</t>
+  </si>
+  <si>
+    <t>9 500 000</t>
+  </si>
+  <si>
+    <t>150 000 000</t>
+  </si>
+  <si>
+    <t>42 000 000</t>
+  </si>
+  <si>
+    <t>115 300 000</t>
+  </si>
+  <si>
+    <t>115 000 000</t>
+  </si>
+  <si>
+    <t>35 000 000</t>
+  </si>
+  <si>
+    <t>220 000 000</t>
+  </si>
+  <si>
+    <t>9 000 000</t>
+  </si>
+  <si>
+    <t>7 200 000</t>
+  </si>
+  <si>
+    <t>200 000 000</t>
+  </si>
+  <si>
+    <t>68 000 000</t>
+  </si>
+  <si>
+    <t>28 390 000</t>
+  </si>
+  <si>
+    <t>17 500 000</t>
+  </si>
+  <si>
+    <t>18 000 000</t>
+  </si>
+  <si>
+    <t>38 000 000</t>
+  </si>
+  <si>
+    <t>78 000 000</t>
+  </si>
+  <si>
+    <t>75 000 000</t>
+  </si>
+  <si>
+    <t>32 000 000</t>
+  </si>
+  <si>
+    <t>140 000 000</t>
+  </si>
+  <si>
+    <t>50 000 000</t>
+  </si>
+  <si>
+    <t>70 000 000</t>
+  </si>
+  <si>
+    <t>12 000 000</t>
+  </si>
+  <si>
+    <t>322 550 000</t>
+  </si>
+  <si>
+    <t>380 000 000</t>
+  </si>
+  <si>
+    <t>8 700 000</t>
+  </si>
+  <si>
+    <t>240 000 000</t>
+  </si>
+  <si>
+    <t>8 000 000</t>
+  </si>
+  <si>
+    <t>12 600 000</t>
+  </si>
+  <si>
+    <t>7 000 000</t>
+  </si>
+  <si>
+    <t>18 330 000</t>
+  </si>
+  <si>
+    <t>20 500 000</t>
+  </si>
+  <si>
+    <t>16 285 499</t>
+  </si>
+  <si>
+    <t>12 500 000</t>
+  </si>
+  <si>
+    <t>23 500 000</t>
+  </si>
+  <si>
+    <t>33 500 000</t>
+  </si>
+  <si>
+    <t>16 000 000</t>
+  </si>
+  <si>
+    <t>21 500 000</t>
+  </si>
+  <si>
+    <t>22 500 000</t>
+  </si>
+  <si>
+    <t>45 000 000</t>
+  </si>
+  <si>
+    <t>24 000 000</t>
+  </si>
+  <si>
+    <t>62 500 000</t>
+  </si>
+  <si>
+    <t>34 000 000</t>
+  </si>
+  <si>
+    <t>5 700 000</t>
+  </si>
+  <si>
+    <t>6 500 000</t>
+  </si>
+  <si>
+    <t>13 500 000</t>
+  </si>
+  <si>
+    <t>948 000 000</t>
+  </si>
+  <si>
+    <t>142 000 000</t>
+  </si>
+  <si>
+    <t>100 000 000</t>
+  </si>
+  <si>
+    <t>8 500 000</t>
+  </si>
+  <si>
+    <t>90 000 000</t>
+  </si>
+  <si>
+    <t>25 000 000</t>
+  </si>
+  <si>
+    <t>39 000 000</t>
+  </si>
+  <si>
+    <t>72 000 000</t>
+  </si>
+  <si>
+    <t>27 000 000</t>
+  </si>
+  <si>
+    <t>22 000 000</t>
+  </si>
+  <si>
+    <t>40 000 000</t>
+  </si>
+  <si>
+    <t>79 000 000</t>
+  </si>
+  <si>
+    <t>110 000 000</t>
+  </si>
+  <si>
+    <t>29 000 000</t>
+  </si>
+  <si>
+    <t>26 000 000</t>
+  </si>
+  <si>
+    <t>10 000 000</t>
+  </si>
+  <si>
+    <t>99 000 000</t>
+  </si>
+  <si>
+    <t>15 000 000</t>
+  </si>
+  <si>
+    <t>18 500 000</t>
+  </si>
+  <si>
+    <t>28 000 000</t>
+  </si>
+  <si>
+    <t>20 000 000</t>
+  </si>
+  <si>
+    <t>88 000 000</t>
+  </si>
+  <si>
+    <t>143 000 000</t>
+  </si>
+  <si>
+    <t>95 000 000</t>
+  </si>
+  <si>
+    <t>180 000 000</t>
+  </si>
+  <si>
+    <t>5 360 000</t>
+  </si>
+  <si>
+    <t>250 000 000</t>
+  </si>
+  <si>
+    <t>47 000 000</t>
+  </si>
+  <si>
+    <t>23 000 000</t>
+  </si>
+  <si>
+    <t>14 500 000</t>
+  </si>
+  <si>
+    <t>3 500 000</t>
+  </si>
+  <si>
+    <t>6 000 000</t>
+  </si>
+  <si>
+    <t>7 850 000</t>
+  </si>
+  <si>
+    <t>11 000 000</t>
+  </si>
+  <si>
+    <t>60 000 000</t>
+  </si>
+  <si>
+    <t>7 890 000</t>
+  </si>
+  <si>
+    <t>120 000 000</t>
+  </si>
+  <si>
+    <t>20 668 800</t>
+  </si>
+  <si>
+    <t>28 500 000</t>
+  </si>
+  <si>
+    <t>11 850 000</t>
+  </si>
+  <si>
+    <t>6 750 000</t>
+  </si>
+  <si>
+    <t>7 500 000</t>
+  </si>
+  <si>
+    <t>9 200 000</t>
+  </si>
+  <si>
+    <t>6 730 000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,35 +977,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -708,10 +1016,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -749,71 +1057,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -841,7 +1149,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -864,11 +1172,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -877,13 +1185,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -893,7 +1201,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -902,7 +1210,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -911,7 +1219,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -919,10 +1227,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -987,26 +1295,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1050,7 +1355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1067,7 +1372,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1105,7 +1410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1431,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1147,7 +1452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1168,7 +1473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1189,7 +1494,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1210,7 +1515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1231,7 +1536,7 @@
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1252,7 +1557,7 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1273,7 +1578,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1294,7 +1599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1336,7 +1641,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1662,7 @@
       </c>
       <c r="G17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
@@ -1378,7 +1683,7 @@
       </c>
       <c r="G18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -1399,7 +1704,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
@@ -1420,7 +1725,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
@@ -1441,7 +1746,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1462,7 +1767,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1483,7 +1788,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1504,7 +1809,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1525,7 +1830,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1542,7 +1847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
@@ -1563,7 +1868,7 @@
         <v>41</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +1889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1605,7 +1910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
@@ -1626,7 +1931,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1647,7 +1952,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -1668,7 +1973,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -1689,7 +1994,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -1710,7 +2015,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1727,7 +2032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -1744,7 +2049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -1765,7 +2070,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -1786,7 +2091,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>73</v>
       </c>
@@ -1803,7 +2108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>74</v>
       </c>
@@ -1824,7 +2129,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -1845,7 +2150,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>24</v>
       </c>
@@ -1866,7 +2171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>78</v>
       </c>
@@ -1883,7 +2188,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -1904,7 +2209,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -1925,7 +2230,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -1946,7 +2251,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>84</v>
       </c>
@@ -1967,7 +2272,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1988,7 +2293,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -2009,7 +2314,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
@@ -2030,7 +2335,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -2051,7 +2356,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -2072,7 +2377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -2093,7 +2398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
@@ -2114,7 +2419,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>24</v>
       </c>
@@ -2135,7 +2440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
@@ -2156,7 +2461,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>28</v>
       </c>
@@ -2177,7 +2482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>84</v>
       </c>
@@ -2198,7 +2503,7 @@
       </c>
       <c r="G58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2219,7 +2524,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>93</v>
       </c>
@@ -2240,7 +2545,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>95</v>
       </c>
@@ -2261,7 +2566,7 @@
       </c>
       <c r="G61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>42</v>
       </c>
@@ -2282,7 +2587,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2303,7 +2608,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2324,7 +2629,7 @@
       </c>
       <c r="G64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>102</v>
       </c>
@@ -2345,7 +2650,7 @@
       </c>
       <c r="G65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2366,7 +2671,7 @@
       </c>
       <c r="G66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>100</v>
       </c>
@@ -2387,7 +2692,7 @@
       </c>
       <c r="G67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>107</v>
       </c>
@@ -2404,7 +2709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>108</v>
       </c>
@@ -2425,7 +2730,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>52</v>
       </c>
@@ -2446,7 +2751,7 @@
       </c>
       <c r="G70" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>110</v>
       </c>
@@ -2467,7 +2772,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>112</v>
       </c>
@@ -2488,7 +2793,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>114</v>
       </c>
@@ -2509,7 +2814,7 @@
       </c>
       <c r="G73" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>116</v>
       </c>
@@ -2530,7 +2835,7 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>117</v>
       </c>
@@ -2551,7 +2856,7 @@
       </c>
       <c r="G75" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>67</v>
       </c>
@@ -2568,7 +2873,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>100</v>
       </c>
@@ -2589,7 +2894,7 @@
       </c>
       <c r="G77" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>119</v>
       </c>
@@ -2606,7 +2911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -2623,7 +2928,7 @@
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>11</v>
       </c>
@@ -2640,7 +2945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>121</v>
       </c>
@@ -2663,7 +2968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>46</v>
       </c>
@@ -2684,7 +2989,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>117</v>
       </c>
@@ -2705,7 +3010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>22</v>
       </c>
@@ -2726,7 +3031,7 @@
         <v>68</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>67</v>
       </c>
@@ -2743,7 +3048,7 @@
         <v>124</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>107</v>
       </c>
@@ -2760,7 +3065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>42</v>
       </c>
@@ -2779,7 +3084,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>7</v>
       </c>
@@ -2800,7 +3105,7 @@
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>108</v>
       </c>
@@ -2821,7 +3126,7 @@
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
@@ -2842,7 +3147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>14</v>
       </c>
@@ -2859,7 +3164,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>22</v>
       </c>
@@ -2880,7 +3185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
@@ -2901,7 +3206,7 @@
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
@@ -2922,7 +3227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>127</v>
       </c>
@@ -2943,7 +3248,7 @@
       </c>
       <c r="G95" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>116</v>
       </c>
@@ -2966,7 +3271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -2987,7 +3292,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -3002,7 +3307,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -3023,7 +3328,7 @@
       </c>
       <c r="G99" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>52</v>
       </c>
@@ -3044,7 +3349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>127</v>
       </c>
@@ -3063,7 +3368,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
+    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>98</v>
       </c>
@@ -3084,7 +3389,7 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
@@ -3105,7 +3410,7 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>100</v>
       </c>
@@ -3126,7 +3431,7 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>129</v>
       </c>
@@ -3147,7 +3452,7 @@
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>130</v>
       </c>
@@ -3168,7 +3473,7 @@
       </c>
       <c r="G106" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>47</v>
       </c>
@@ -3189,7 +3494,7 @@
       </c>
       <c r="G107" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>100</v>
       </c>
@@ -3210,7 +3515,7 @@
       </c>
       <c r="G108" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>46</v>
       </c>
@@ -3231,7 +3536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -3252,7 +3557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>90</v>
       </c>
@@ -3273,7 +3578,7 @@
       </c>
       <c r="G111" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
+    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
@@ -3294,7 +3599,7 @@
       </c>
       <c r="G112" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
@@ -3315,7 +3620,7 @@
       </c>
       <c r="G113" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>71</v>
       </c>
@@ -3336,7 +3641,7 @@
         <v>72</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>100</v>
       </c>
@@ -3357,7 +3662,7 @@
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
+    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>59</v>
       </c>
@@ -3378,7 +3683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>64</v>
       </c>
@@ -3399,7 +3704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
+    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>22</v>
       </c>
@@ -3441,7 +3746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
+    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>134</v>
       </c>
@@ -3462,7 +3767,7 @@
       </c>
       <c r="G120" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>28</v>
       </c>
@@ -3483,7 +3788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
+    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>135</v>
       </c>
@@ -3500,7 +3805,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>100</v>
       </c>
@@ -3519,7 +3824,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
+    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
@@ -3538,7 +3843,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
@@ -3557,7 +3862,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
+    <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
@@ -3572,7 +3877,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+    <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>7</v>
       </c>
@@ -3591,7 +3896,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
+    <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>138</v>
       </c>
@@ -3610,7 +3915,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+    <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>100</v>
       </c>
@@ -3629,7 +3934,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
+    <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>140</v>
       </c>
@@ -3648,7 +3953,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+    <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>141</v>
       </c>
@@ -3667,7 +3972,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
+    <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>142</v>
       </c>
@@ -3686,7 +3991,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+    <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>144</v>
       </c>
@@ -3707,7 +4012,7 @@
       </c>
       <c r="G133" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
+    <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>98</v>
       </c>
@@ -3728,7 +4033,7 @@
       </c>
       <c r="G134" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+    <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>100</v>
       </c>
@@ -3749,7 +4054,7 @@
       </c>
       <c r="G135" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
+    <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>146</v>
       </c>
@@ -3770,7 +4075,7 @@
       </c>
       <c r="G136" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+    <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>146</v>
       </c>
@@ -3791,7 +4096,7 @@
       </c>
       <c r="G137" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
+    <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>126</v>
       </c>
@@ -3812,7 +4117,7 @@
       </c>
       <c r="G138" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+    <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>69</v>
       </c>
@@ -3833,7 +4138,7 @@
       </c>
       <c r="G139" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
+    <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>116</v>
       </c>
@@ -3854,7 +4159,7 @@
       </c>
       <c r="G140" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+    <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>149</v>
       </c>
@@ -3875,7 +4180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
+    <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>22</v>
       </c>
@@ -3896,7 +4201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+    <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>7</v>
       </c>
@@ -3917,7 +4222,7 @@
       </c>
       <c r="G143" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
+    <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>135</v>
       </c>
@@ -3936,7 +4241,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+    <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>150</v>
       </c>
@@ -3955,7 +4260,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
+    <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>152</v>
       </c>
@@ -3974,7 +4279,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+    <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>153</v>
       </c>
@@ -3993,7 +4298,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
+    <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>154</v>
       </c>
@@ -4010,7 +4315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+    <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>67</v>
       </c>
@@ -4031,7 +4336,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
+    <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>90</v>
       </c>
@@ -4050,7 +4355,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
+    <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>129</v>
       </c>
@@ -4071,7 +4376,7 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
+    <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>35</v>
       </c>
@@ -4090,7 +4395,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
+    <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>159</v>
       </c>
@@ -4109,7 +4414,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
+    <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -4126,7 +4431,7 @@
       </c>
       <c r="G154" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
+    <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>35</v>
       </c>
@@ -4145,7 +4450,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
+    <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>67</v>
       </c>
@@ -4166,7 +4471,7 @@
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
+    <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>163</v>
       </c>
@@ -4187,7 +4492,7 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
+    <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>69</v>
       </c>
@@ -4206,7 +4511,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
+    <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>166</v>
       </c>
@@ -4225,7 +4530,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
+    <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>25</v>
       </c>
@@ -4246,7 +4551,7 @@
       </c>
       <c r="G160" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
+    <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>90</v>
       </c>
@@ -4265,7 +4570,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
+    <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>167</v>
       </c>
@@ -4284,7 +4589,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
+    <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>59</v>
       </c>
@@ -4303,7 +4608,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
+    <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>168</v>
       </c>
@@ -4324,7 +4629,7 @@
       </c>
       <c r="G164" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
+    <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>170</v>
       </c>
@@ -4343,7 +4648,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
+    <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>171</v>
       </c>
@@ -4362,7 +4667,7 @@
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
+    <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>174</v>
       </c>
@@ -4383,7 +4688,7 @@
       </c>
       <c r="G167" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
+    <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>176</v>
       </c>
@@ -4404,7 +4709,7 @@
       </c>
       <c r="G168" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
+    <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>42</v>
       </c>
@@ -4423,7 +4728,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
+    <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>138</v>
       </c>
@@ -4444,7 +4749,7 @@
       </c>
       <c r="G170" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
+    <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>178</v>
       </c>
@@ -4465,7 +4770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
+    <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>28</v>
       </c>
@@ -4484,7 +4789,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
+    <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>146</v>
       </c>
@@ -4505,7 +4810,7 @@
         <v>180</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
+    <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>138</v>
       </c>
@@ -4526,7 +4831,7 @@
       </c>
       <c r="G174" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
+    <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>81</v>
       </c>
@@ -4547,7 +4852,7 @@
         <v>182</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
+    <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>161</v>
       </c>
@@ -4564,7 +4869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
+    <row r="177" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>127</v>
       </c>
@@ -4583,7 +4888,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
+    <row r="178" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>69</v>
       </c>
@@ -4602,7 +4907,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
+    <row r="179" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
@@ -4621,7 +4926,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
+    <row r="180" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>170</v>
       </c>
@@ -4642,7 +4947,7 @@
       </c>
       <c r="G180" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
+    <row r="181" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>69</v>
       </c>
@@ -4661,7 +4966,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
+    <row r="182" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -4682,7 +4987,7 @@
       </c>
       <c r="G182" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
+    <row r="183" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>69</v>
       </c>
@@ -4701,7 +5006,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
+    <row r="184" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>185</v>
       </c>
@@ -4720,7 +5025,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
+    <row r="185" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>186</v>
       </c>
@@ -4737,7 +5042,7 @@
         <v>189</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
+    <row r="186" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>38</v>
       </c>
@@ -4756,7 +5061,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
+    <row r="187" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>190</v>
       </c>
@@ -4775,7 +5080,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
+    <row r="188" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>28</v>
       </c>
@@ -4794,7 +5099,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
+    <row r="189" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>64</v>
       </c>
@@ -4815,7 +5120,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
+    <row r="190" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>191</v>
       </c>
@@ -4836,7 +5141,7 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
+    <row r="191" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -4857,7 +5162,7 @@
       </c>
       <c r="G191" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
+    <row r="192" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>126</v>
       </c>
@@ -4878,7 +5183,7 @@
       </c>
       <c r="G192" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
+    <row r="193" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>146</v>
       </c>
@@ -4899,7 +5204,7 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
+    <row r="194" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>194</v>
       </c>
@@ -4920,7 +5225,7 @@
       </c>
       <c r="G194" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
+    <row r="195" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>196</v>
       </c>
@@ -4939,7 +5244,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
+    <row r="196" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>38</v>
       </c>
@@ -4960,7 +5265,7 @@
       </c>
       <c r="G196" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
+    <row r="197" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>117</v>
       </c>
@@ -4979,7 +5284,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
+    <row r="198" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>93</v>
       </c>
@@ -5000,7 +5305,7 @@
       </c>
       <c r="G198" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
+    <row r="199" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>183</v>
       </c>
@@ -5021,7 +5326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
+    <row r="200" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>198</v>
       </c>
@@ -5040,7 +5345,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
+    <row r="201" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>174</v>
       </c>
@@ -5061,7 +5366,7 @@
       </c>
       <c r="G201" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
+    <row r="202" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>199</v>
       </c>
@@ -5082,7 +5387,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
+    <row r="203" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>200</v>
       </c>
@@ -5101,7 +5406,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
+    <row r="204" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>93</v>
       </c>
@@ -5122,7 +5427,7 @@
       </c>
       <c r="G204" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
+    <row r="205" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>150</v>
       </c>
@@ -5142,6 +5447,4028 @@
         <v>201</v>
       </c>
       <c r="G205" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FCFC77-4F29-47F5-9CE6-5C7A866728A1}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G205"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
+      </c>
+      <c r="E13" s="2">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <v>4</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="2">
+        <v>5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="2">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2">
+        <v>4</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2">
+        <v>7</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2">
+        <v>4</v>
+      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="2">
+        <v>5</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="2">
+        <v>5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="2">
+        <v>4</v>
+      </c>
+      <c r="E57" s="2">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>1</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>1</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D66" s="2">
+        <v>3</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="2">
+        <v>4</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2">
+        <v>4</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="2">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="2">
+        <v>4</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>1</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="2">
+        <v>3</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2">
+        <v>4</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2">
+        <v>7</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D84" s="2">
+        <v>5</v>
+      </c>
+      <c r="E84" s="2">
+        <v>5</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2">
+        <v>4</v>
+      </c>
+      <c r="E88" s="2">
+        <v>4</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="2">
+        <v>4</v>
+      </c>
+      <c r="E89" s="2">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="2">
+        <v>3</v>
+      </c>
+      <c r="E90" s="2">
+        <v>2</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2">
+        <v>6</v>
+      </c>
+      <c r="E92" s="2">
+        <v>6</v>
+      </c>
+      <c r="F92" s="2"/>
+      <c r="G92" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="2">
+        <v>5</v>
+      </c>
+      <c r="E93" s="2">
+        <v>5</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2</v>
+      </c>
+      <c r="E94" s="2">
+        <v>1</v>
+      </c>
+      <c r="F94" s="2"/>
+      <c r="G94" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="2">
+        <v>4</v>
+      </c>
+      <c r="E95" s="2">
+        <v>4</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1</v>
+      </c>
+      <c r="F96" s="2">
+        <v>1</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2">
+        <v>4</v>
+      </c>
+      <c r="E97" s="2">
+        <v>4</v>
+      </c>
+      <c r="F97" s="2"/>
+      <c r="G97" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" s="2">
+        <v>4</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2">
+        <v>4</v>
+      </c>
+      <c r="E101" s="2">
+        <v>4</v>
+      </c>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D102" s="2">
+        <v>5</v>
+      </c>
+      <c r="E102" s="2">
+        <v>2</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3</v>
+      </c>
+      <c r="E103" s="2">
+        <v>2</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D104" s="2">
+        <v>2</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" s="2">
+        <v>3</v>
+      </c>
+      <c r="E105" s="2">
+        <v>2</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D106" s="2">
+        <v>5</v>
+      </c>
+      <c r="E106" s="2">
+        <v>2</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D107" s="2">
+        <v>4</v>
+      </c>
+      <c r="E107" s="2">
+        <v>3</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="2">
+        <v>2</v>
+      </c>
+      <c r="E108" s="2">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2">
+        <v>7</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2">
+        <v>4</v>
+      </c>
+      <c r="E110" s="2">
+        <v>4</v>
+      </c>
+      <c r="F110" s="2"/>
+      <c r="G110" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D111" s="2">
+        <v>3</v>
+      </c>
+      <c r="E111" s="2">
+        <v>2</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D112" s="2">
+        <v>5</v>
+      </c>
+      <c r="E112" s="2">
+        <v>3</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D113" s="2">
+        <v>4</v>
+      </c>
+      <c r="E113" s="2">
+        <v>3</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="2">
+        <v>4</v>
+      </c>
+      <c r="E114" s="2">
+        <v>3</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+      <c r="E115" s="2">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D116" s="2">
+        <v>5</v>
+      </c>
+      <c r="E116" s="2">
+        <v>4</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D117" s="2">
+        <v>5</v>
+      </c>
+      <c r="E117" s="2">
+        <v>3</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2">
+        <v>5</v>
+      </c>
+      <c r="E118" s="2">
+        <v>5</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2">
+        <v>6</v>
+      </c>
+      <c r="E119" s="2">
+        <v>6</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="2">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2">
+        <v>2</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="2">
+        <v>4</v>
+      </c>
+      <c r="E121" s="2">
+        <v>4</v>
+      </c>
+      <c r="F121" s="2"/>
+      <c r="G121" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="2">
+        <v>4</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="2">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2">
+        <v>2</v>
+      </c>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D124" s="2">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2">
+        <v>2</v>
+      </c>
+      <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2">
+        <v>5</v>
+      </c>
+      <c r="E125" s="2">
+        <v>5</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="2">
+        <v>5</v>
+      </c>
+      <c r="E127" s="2">
+        <v>5</v>
+      </c>
+      <c r="F127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D128" s="2">
+        <v>5</v>
+      </c>
+      <c r="E128" s="2">
+        <v>2</v>
+      </c>
+      <c r="F128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="2">
+        <v>3</v>
+      </c>
+      <c r="E129" s="2">
+        <v>2</v>
+      </c>
+      <c r="F129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="2">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2">
+        <v>2</v>
+      </c>
+      <c r="F130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" s="2">
+        <v>3</v>
+      </c>
+      <c r="E131" s="2">
+        <v>2</v>
+      </c>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="2">
+        <v>3</v>
+      </c>
+      <c r="E132" s="2">
+        <v>3</v>
+      </c>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" s="2">
+        <v>6</v>
+      </c>
+      <c r="E133" s="2">
+        <v>6</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D134" s="2">
+        <v>5</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2</v>
+      </c>
+      <c r="E135" s="2">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="2">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="2">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2">
+        <v>2</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2</v>
+      </c>
+      <c r="E139" s="2">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
+      <c r="E140" s="2">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="2">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2">
+        <v>2</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2">
+        <v>6</v>
+      </c>
+      <c r="E142" s="2">
+        <v>6</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2">
+        <v>4</v>
+      </c>
+      <c r="E143" s="2">
+        <v>4</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2">
+        <v>2</v>
+      </c>
+      <c r="F144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" s="2">
+        <v>4</v>
+      </c>
+      <c r="E145" s="2">
+        <v>4</v>
+      </c>
+      <c r="F145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="2">
+        <v>2</v>
+      </c>
+      <c r="E146" s="2">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="2">
+        <v>5</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="2">
+        <v>4</v>
+      </c>
+      <c r="E149" s="2">
+        <v>2</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D150" s="2">
+        <v>4</v>
+      </c>
+      <c r="E150" s="2">
+        <v>4</v>
+      </c>
+      <c r="F150" s="2"/>
+    </row>
+    <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" s="2">
+        <v>2</v>
+      </c>
+      <c r="E151" s="2">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="2">
+        <v>5</v>
+      </c>
+      <c r="E152" s="2">
+        <v>5</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D153" s="2">
+        <v>3</v>
+      </c>
+      <c r="E153" s="2">
+        <v>3</v>
+      </c>
+      <c r="F153" s="2"/>
+    </row>
+    <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2">
+        <v>5</v>
+      </c>
+      <c r="E155" s="2">
+        <v>5</v>
+      </c>
+      <c r="F155" s="2"/>
+    </row>
+    <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2">
+        <v>4</v>
+      </c>
+      <c r="E156" s="2">
+        <v>2</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D157" s="2">
+        <v>2</v>
+      </c>
+      <c r="E157" s="2">
+        <v>2</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D158" s="2">
+        <v>3</v>
+      </c>
+      <c r="E158" s="2">
+        <v>2</v>
+      </c>
+      <c r="F158" s="2"/>
+    </row>
+    <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2">
+        <v>5</v>
+      </c>
+      <c r="E159" s="2">
+        <v>5</v>
+      </c>
+      <c r="F159" s="2"/>
+    </row>
+    <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2</v>
+      </c>
+      <c r="E160" s="2">
+        <v>2</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D161" s="2">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2">
+        <v>2</v>
+      </c>
+      <c r="F161" s="2"/>
+    </row>
+    <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" s="2">
+        <v>4</v>
+      </c>
+      <c r="E162" s="2">
+        <v>3</v>
+      </c>
+      <c r="F162" s="2"/>
+    </row>
+    <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D163" s="2">
+        <v>4</v>
+      </c>
+      <c r="E163" s="2">
+        <v>3</v>
+      </c>
+      <c r="F163" s="2"/>
+    </row>
+    <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="2">
+        <v>3</v>
+      </c>
+      <c r="E164" s="2">
+        <v>3</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="2">
+        <v>2</v>
+      </c>
+      <c r="E165" s="2">
+        <v>1</v>
+      </c>
+      <c r="F165" s="2"/>
+    </row>
+    <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D166" s="2">
+        <v>1</v>
+      </c>
+      <c r="E166" s="2"/>
+      <c r="F166" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="2">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" s="2">
+        <v>2</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="2"/>
+    </row>
+    <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="2">
+        <v>5</v>
+      </c>
+      <c r="E170" s="2">
+        <v>5</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D171" s="2">
+        <v>3</v>
+      </c>
+      <c r="E171" s="2">
+        <v>2</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" s="2">
+        <v>4</v>
+      </c>
+      <c r="E172" s="2">
+        <v>5</v>
+      </c>
+      <c r="F172" s="2"/>
+    </row>
+    <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" s="2">
+        <v>2</v>
+      </c>
+      <c r="E173" s="2">
+        <v>1</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="2">
+        <v>5</v>
+      </c>
+      <c r="E174" s="2">
+        <v>4</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D175" s="2">
+        <v>2</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="2">
+        <v>5</v>
+      </c>
+      <c r="E177" s="2">
+        <v>5</v>
+      </c>
+      <c r="F177" s="2"/>
+    </row>
+    <row r="178" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178" s="2">
+        <v>2</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2</v>
+      </c>
+      <c r="F178" s="2"/>
+    </row>
+    <row r="179" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D179" s="2">
+        <v>5</v>
+      </c>
+      <c r="E179" s="2">
+        <v>5</v>
+      </c>
+      <c r="F179" s="2"/>
+    </row>
+    <row r="180" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="2">
+        <v>2</v>
+      </c>
+      <c r="E180" s="2">
+        <v>3</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2</v>
+      </c>
+      <c r="E181" s="2">
+        <v>2</v>
+      </c>
+      <c r="F181" s="2"/>
+    </row>
+    <row r="182" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" s="2">
+        <v>1</v>
+      </c>
+      <c r="E182" s="2">
+        <v>1</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" s="2">
+        <v>3</v>
+      </c>
+      <c r="E183" s="2">
+        <v>3</v>
+      </c>
+      <c r="F183" s="2"/>
+    </row>
+    <row r="184" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" s="2">
+        <v>4</v>
+      </c>
+      <c r="E184" s="2">
+        <v>4</v>
+      </c>
+      <c r="F184" s="2"/>
+    </row>
+    <row r="185" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D186" s="2">
+        <v>4</v>
+      </c>
+      <c r="E186" s="2">
+        <v>2</v>
+      </c>
+      <c r="F186" s="2"/>
+    </row>
+    <row r="187" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D187" s="2">
+        <v>4</v>
+      </c>
+      <c r="E187" s="2">
+        <v>4</v>
+      </c>
+      <c r="F187" s="2"/>
+    </row>
+    <row r="188" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="2">
+        <v>5</v>
+      </c>
+      <c r="E188" s="2">
+        <v>5</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row r="189" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D189" s="2">
+        <v>6</v>
+      </c>
+      <c r="E189" s="2">
+        <v>6</v>
+      </c>
+      <c r="F189" s="2"/>
+      <c r="G189" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2</v>
+      </c>
+      <c r="E190" s="2">
+        <v>2</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="2">
+        <v>1</v>
+      </c>
+      <c r="E191" s="2">
+        <v>1</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" s="2">
+        <v>2</v>
+      </c>
+      <c r="E192" s="2">
+        <v>2</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" s="2">
+        <v>3</v>
+      </c>
+      <c r="E193" s="2">
+        <v>4</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+      <c r="E194" s="2">
+        <v>1</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D195" s="2">
+        <v>2</v>
+      </c>
+      <c r="E195" s="2">
+        <v>2</v>
+      </c>
+      <c r="F195" s="2"/>
+    </row>
+    <row r="196" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D196" s="2">
+        <v>4</v>
+      </c>
+      <c r="E196" s="2">
+        <v>4</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D197" s="2">
+        <v>2</v>
+      </c>
+      <c r="E197" s="2">
+        <v>2</v>
+      </c>
+      <c r="F197" s="2"/>
+    </row>
+    <row r="198" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D198" s="2">
+        <v>2</v>
+      </c>
+      <c r="E198" s="2">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="2">
+        <v>4</v>
+      </c>
+      <c r="E199" s="2">
+        <v>3</v>
+      </c>
+      <c r="F199" s="2"/>
+      <c r="G199" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D200" s="2">
+        <v>1</v>
+      </c>
+      <c r="E200" s="2">
+        <v>1</v>
+      </c>
+      <c r="F200" s="2"/>
+    </row>
+    <row r="201" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="2">
+        <v>1</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2">
+        <v>8</v>
+      </c>
+      <c r="E202" s="2">
+        <v>7</v>
+      </c>
+      <c r="F202" s="2"/>
+      <c r="G202" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D203" s="2">
+        <v>2</v>
+      </c>
+      <c r="E203" s="2">
+        <v>2</v>
+      </c>
+      <c r="F203" s="2"/>
+    </row>
+    <row r="204" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D204" s="2">
+        <v>2</v>
+      </c>
+      <c r="E204" s="2">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D205" s="2">
+        <v>4</v>
+      </c>
+      <c r="E205" s="2">
+        <v>3</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nairobi property.xlsx
+++ b/Nairobi property.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremiah Muraguri\Desktop\Nairobi_property\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6135759-6847-427B-8151-859FA984E294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B85C8F8-9075-432F-9EBA-0758B4FF8CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Nairobi propertyprices - Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Cleaned worksheet" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cleaned worksheet'!$A$1:$J$205</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="207">
   <si>
     <t>Price</t>
   </si>
@@ -640,295 +643,19 @@
     <t>234 mÂ²</t>
   </si>
   <si>
-    <t>Price(Cleaned)</t>
-  </si>
-  <si>
-    <t>350 000 000</t>
-  </si>
-  <si>
-    <t>30 000 000</t>
-  </si>
-  <si>
-    <t>325 000 000</t>
-  </si>
-  <si>
-    <t>80 000 000</t>
-  </si>
-  <si>
-    <t>25 500 000</t>
-  </si>
-  <si>
-    <t>300 000 000</t>
-  </si>
-  <si>
-    <t>160 000 000</t>
-  </si>
-  <si>
-    <t>9 500 000</t>
-  </si>
-  <si>
-    <t>150 000 000</t>
-  </si>
-  <si>
-    <t>42 000 000</t>
-  </si>
-  <si>
-    <t>115 300 000</t>
-  </si>
-  <si>
-    <t>115 000 000</t>
-  </si>
-  <si>
-    <t>35 000 000</t>
-  </si>
-  <si>
-    <t>220 000 000</t>
-  </si>
-  <si>
-    <t>9 000 000</t>
-  </si>
-  <si>
-    <t>7 200 000</t>
-  </si>
-  <si>
-    <t>200 000 000</t>
-  </si>
-  <si>
-    <t>68 000 000</t>
-  </si>
-  <si>
-    <t>28 390 000</t>
-  </si>
-  <si>
-    <t>17 500 000</t>
-  </si>
-  <si>
-    <t>18 000 000</t>
-  </si>
-  <si>
-    <t>38 000 000</t>
-  </si>
-  <si>
-    <t>78 000 000</t>
-  </si>
-  <si>
-    <t>75 000 000</t>
-  </si>
-  <si>
-    <t>32 000 000</t>
-  </si>
-  <si>
-    <t>140 000 000</t>
-  </si>
-  <si>
-    <t>50 000 000</t>
-  </si>
-  <si>
-    <t>70 000 000</t>
-  </si>
-  <si>
-    <t>12 000 000</t>
-  </si>
-  <si>
-    <t>322 550 000</t>
-  </si>
-  <si>
-    <t>380 000 000</t>
-  </si>
-  <si>
-    <t>8 700 000</t>
-  </si>
-  <si>
-    <t>240 000 000</t>
-  </si>
-  <si>
-    <t>8 000 000</t>
-  </si>
-  <si>
-    <t>12 600 000</t>
-  </si>
-  <si>
-    <t>7 000 000</t>
-  </si>
-  <si>
-    <t>18 330 000</t>
-  </si>
-  <si>
-    <t>20 500 000</t>
-  </si>
-  <si>
-    <t>16 285 499</t>
-  </si>
-  <si>
-    <t>12 500 000</t>
-  </si>
-  <si>
-    <t>23 500 000</t>
-  </si>
-  <si>
-    <t>33 500 000</t>
-  </si>
-  <si>
-    <t>16 000 000</t>
-  </si>
-  <si>
-    <t>21 500 000</t>
-  </si>
-  <si>
-    <t>22 500 000</t>
-  </si>
-  <si>
-    <t>45 000 000</t>
-  </si>
-  <si>
-    <t>24 000 000</t>
-  </si>
-  <si>
-    <t>62 500 000</t>
-  </si>
-  <si>
-    <t>34 000 000</t>
-  </si>
-  <si>
-    <t>5 700 000</t>
-  </si>
-  <si>
-    <t>6 500 000</t>
-  </si>
-  <si>
-    <t>13 500 000</t>
-  </si>
-  <si>
-    <t>948 000 000</t>
-  </si>
-  <si>
-    <t>142 000 000</t>
-  </si>
-  <si>
-    <t>100 000 000</t>
-  </si>
-  <si>
-    <t>8 500 000</t>
-  </si>
-  <si>
-    <t>90 000 000</t>
-  </si>
-  <si>
-    <t>25 000 000</t>
-  </si>
-  <si>
-    <t>39 000 000</t>
-  </si>
-  <si>
-    <t>72 000 000</t>
-  </si>
-  <si>
-    <t>27 000 000</t>
-  </si>
-  <si>
-    <t>22 000 000</t>
-  </si>
-  <si>
-    <t>40 000 000</t>
-  </si>
-  <si>
-    <t>79 000 000</t>
-  </si>
-  <si>
-    <t>110 000 000</t>
-  </si>
-  <si>
-    <t>29 000 000</t>
-  </si>
-  <si>
-    <t>26 000 000</t>
-  </si>
-  <si>
-    <t>10 000 000</t>
-  </si>
-  <si>
-    <t>99 000 000</t>
-  </si>
-  <si>
-    <t>15 000 000</t>
-  </si>
-  <si>
-    <t>18 500 000</t>
-  </si>
-  <si>
-    <t>28 000 000</t>
-  </si>
-  <si>
-    <t>20 000 000</t>
-  </si>
-  <si>
-    <t>88 000 000</t>
-  </si>
-  <si>
-    <t>143 000 000</t>
-  </si>
-  <si>
-    <t>95 000 000</t>
-  </si>
-  <si>
-    <t>180 000 000</t>
-  </si>
-  <si>
-    <t>5 360 000</t>
-  </si>
-  <si>
-    <t>250 000 000</t>
-  </si>
-  <si>
-    <t>47 000 000</t>
-  </si>
-  <si>
-    <t>23 000 000</t>
-  </si>
-  <si>
-    <t>14 500 000</t>
-  </si>
-  <si>
-    <t>3 500 000</t>
-  </si>
-  <si>
-    <t>6 000 000</t>
-  </si>
-  <si>
-    <t>7 850 000</t>
-  </si>
-  <si>
-    <t>11 000 000</t>
-  </si>
-  <si>
-    <t>60 000 000</t>
-  </si>
-  <si>
-    <t>7 890 000</t>
-  </si>
-  <si>
-    <t>120 000 000</t>
-  </si>
-  <si>
-    <t>20 668 800</t>
-  </si>
-  <si>
-    <t>28 500 000</t>
-  </si>
-  <si>
-    <t>11 850 000</t>
-  </si>
-  <si>
-    <t>6 750 000</t>
-  </si>
-  <si>
-    <t>7 500 000</t>
-  </si>
-  <si>
-    <t>9 200 000</t>
-  </si>
-  <si>
-    <t>6 730 000</t>
+    <t>Bedroom(Cleaned)</t>
+  </si>
+  <si>
+    <t>Bathroom(Cleaned)</t>
+  </si>
+  <si>
+    <t>House Size(mÂ²)</t>
+  </si>
+  <si>
+    <t>Land Size(acres)</t>
+  </si>
+  <si>
+    <t>Price(Ksh)</t>
   </si>
 </sst>
 </file>
@@ -1301,7 +1028,9 @@
   </sheetPr>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5461,44 +5190,43 @@
   <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
+        <v>203</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>203</v>
+      <c r="A2" s="7">
+        <v>350000000</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
@@ -5512,14 +5240,16 @@
       <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>204</v>
+      <c r="A3" s="7">
+        <v>30000000</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -5527,16 +5257,22 @@
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>205</v>
+      <c r="A4" s="7">
+        <v>325000000</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>12</v>
@@ -5544,16 +5280,22 @@
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>206</v>
+      <c r="A5" s="7">
+        <v>80000000</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -5567,14 +5309,16 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4" t="s">
-        <v>10</v>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>207</v>
+      <c r="A6" s="7">
+        <v>25500000</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>19</v>
@@ -5588,16 +5332,19 @@
       <c r="E6" s="2">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
+      <c r="F6" s="2">
+        <v>230</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>208</v>
+      <c r="A7" s="7">
+        <v>300000000</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -5608,14 +5355,16 @@
       <c r="E7" s="2">
         <v>6</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>209</v>
+      <c r="A8" s="7">
+        <v>160000000</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -5629,14 +5378,16 @@
       <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>210</v>
+      <c r="A9" s="7">
+        <v>9500000</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>19</v>
@@ -5650,13 +5401,16 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>27</v>
+      <c r="F9" s="2">
+        <v>105</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>211</v>
+      <c r="A10" s="7">
+        <v>150000000</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -5670,14 +5424,16 @@
       <c r="E10" s="2">
         <v>4</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4" t="s">
-        <v>10</v>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>212</v>
+      <c r="A11" s="7">
+        <v>42000000</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>19</v>
@@ -5691,13 +5447,16 @@
       <c r="E11" s="2">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
+      <c r="F11" s="2">
+        <v>280</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>213</v>
+      <c r="A12" s="7">
+        <v>115300000</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
@@ -5711,13 +5470,16 @@
       <c r="E12" s="2">
         <v>4</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>34</v>
+      <c r="F12" s="2">
+        <v>586</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>214</v>
+      <c r="A13" s="7">
+        <v>115000000</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
@@ -5731,14 +5493,16 @@
       <c r="E13" s="2">
         <v>5</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4" t="s">
-        <v>37</v>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>215</v>
+      <c r="A14" s="7">
+        <v>35000000</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
@@ -5752,14 +5516,16 @@
       <c r="E14" s="2">
         <v>4</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4" t="s">
-        <v>39</v>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>216</v>
+      <c r="A15" s="7">
+        <v>220000000</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>8</v>
@@ -5773,35 +5539,39 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4" t="s">
-        <v>41</v>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>216</v>
+      <c r="A16" s="7">
+        <v>9000000</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4" t="s">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>210</v>
+      <c r="A17" s="7">
+        <v>7200000</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>19</v>
@@ -5813,82 +5583,93 @@
         <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>217</v>
+      <c r="A18" s="7">
+        <v>200000000</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>218</v>
+      <c r="A19" s="7">
+        <v>68000000</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>399</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>219</v>
+      <c r="A20" s="7">
+        <v>28390000</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D20" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E20" s="2">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>203</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>220</v>
+      <c r="A21" s="7">
+        <v>17500000</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2">
         <v>4</v>
@@ -5896,13 +5677,16 @@
       <c r="E21" s="2">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>49</v>
+      <c r="F21" s="2">
+        <v>230</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>221</v>
+      <c r="A22" s="7">
+        <v>28390000</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>19</v>
@@ -5914,156 +5698,179 @@
         <v>3</v>
       </c>
       <c r="E22" s="2">
-        <v>2</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
+        <v>203</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>222</v>
+      <c r="A23" s="7">
+        <v>115000000</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>221</v>
+      <c r="A24" s="7">
+        <v>18000000</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>51</v>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.12</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>214</v>
+      <c r="A25" s="7">
+        <v>200000000</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>38000000</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>78000000</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2">
         <v>5</v>
       </c>
-      <c r="E25" s="2">
-        <v>4</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2">
-        <v>6</v>
-      </c>
       <c r="E27" s="2">
-        <v>6</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="4" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>300</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>219</v>
+      <c r="A28" s="7">
+        <v>75000000</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2">
-        <v>7</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="4" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
+        <v>423</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>224</v>
+      <c r="A29" s="7">
+        <v>32000000</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>283</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>225</v>
+      <c r="A30" s="7">
+        <v>140000000</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>8</v>
@@ -6077,191 +5884,229 @@
       <c r="E30" s="2">
         <v>3</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>58</v>
+      <c r="F30" s="2">
+        <v>385</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>226</v>
+      <c r="A31" s="7">
+        <v>50000000</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>4</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>227</v>
+      <c r="A32" s="7">
+        <v>70000000</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>63</v>
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>228</v>
+      <c r="A33" s="7">
+        <v>12000000</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>150</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>217</v>
+      <c r="A34" s="7">
+        <v>322550000</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>43</v>
+        <v>3</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>1.75</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>229</v>
+      <c r="A35" s="7">
+        <v>380000000</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>230</v>
+      <c r="A36" s="7">
+        <v>8700000</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2">
+        <v>50</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>160000000</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="2">
+        <v>4</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>240000000</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="2">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="D38" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="4" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>233</v>
+      <c r="A39" s="7">
+        <v>12000000</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4" t="s">
-        <v>37</v>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>90</v>
+      </c>
+      <c r="G39" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>234</v>
+      <c r="A40" s="7">
+        <v>8000000</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2">
         <v>1</v>
@@ -6269,280 +6114,321 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>76</v>
+      <c r="F40" s="2">
+        <v>57</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>209</v>
+      <c r="A41" s="7">
+        <v>12600000</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="4" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="F41" s="2">
+        <v>90</v>
+      </c>
+      <c r="G41" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>209</v>
+      <c r="A42" s="7">
+        <v>7000000</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>65</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>235</v>
+      <c r="A43" s="7">
+        <v>18330000</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="4" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>141</v>
+      </c>
+      <c r="G43" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>231</v>
+      <c r="A44" s="7">
+        <v>25500000</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>260</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>75000000</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>140000000</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>20500000</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="2">
+        <v>3</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>186</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>9000000</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>105</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>16285499</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
-      <c r="E44" s="2">
-        <v>2</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+      <c r="F49" s="2">
+        <v>90</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>12500000</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2">
-        <v>8</v>
-      </c>
-      <c r="E48" s="2">
-        <v>7</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="2">
-        <v>4</v>
-      </c>
-      <c r="E49" s="2">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1</v>
+      </c>
+      <c r="F50" s="2">
+        <v>96</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>23500000</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="2">
+        <v>3</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2">
+        <v>159</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>9000000</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="2">
-        <v>4</v>
-      </c>
-      <c r="E51" s="2">
-        <v>4</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="2">
-        <v>5</v>
-      </c>
-      <c r="E52" s="2">
-        <v>4</v>
-      </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="4" t="s">
-        <v>10</v>
+      <c r="G52" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>228</v>
+      <c r="A53" s="7">
+        <v>33500000</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
       </c>
       <c r="E53" s="2">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>302</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
-        <v>240</v>
+      <c r="A54" s="7">
+        <v>16000000</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2">
         <v>3</v>
@@ -6550,34 +6436,39 @@
       <c r="E54" s="2">
         <v>2</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>91</v>
+      <c r="F54" s="2">
+        <v>160</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>209</v>
+      <c r="A55" s="7">
+        <v>21500000</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D55" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2">
-        <v>4</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F55" s="2">
+        <v>139</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>217</v>
+      <c r="A56" s="7">
+        <v>22500000</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>19</v>
@@ -6586,99 +6477,113 @@
         <v>26</v>
       </c>
       <c r="D56" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2">
         <v>2</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>27</v>
+      <c r="F56" s="2">
+        <v>202</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
-        <v>211</v>
+      <c r="A57" s="7">
+        <v>16000000</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F57" s="2">
+        <v>125</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
-        <v>238</v>
+      <c r="A58" s="7">
+        <v>45000000</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>241</v>
+      <c r="A59" s="7">
+        <v>24000000</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="2">
+        <v>4</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2</v>
+      </c>
+      <c r="F59" s="2">
+        <v>223</v>
+      </c>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="7">
+        <v>17500000</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="2">
-        <v>2</v>
-      </c>
-      <c r="E59" s="2">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D60" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E60" s="2">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
+        <v>230</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
-        <v>243</v>
+      <c r="A61" s="7">
+        <v>62500000</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>19</v>
@@ -6687,18 +6592,21 @@
         <v>26</v>
       </c>
       <c r="D61" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E61" s="2">
-        <v>2</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>96</v>
+        <v>3</v>
+      </c>
+      <c r="F61" s="2">
+        <v>445</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
-        <v>217</v>
+      <c r="A62" s="7">
+        <v>34000000</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>19</v>
@@ -6707,38 +6615,44 @@
         <v>20</v>
       </c>
       <c r="D62" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E62" s="2">
         <v>2</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>97</v>
+      <c r="F62" s="2">
+        <v>338</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
-        <v>244</v>
+      <c r="A63" s="7">
+        <v>5700000</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E63" s="2">
-        <v>2</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>99</v>
+        <v>1</v>
+      </c>
+      <c r="F63" s="2">
+        <v>48</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
-        <v>245</v>
+      <c r="A64" s="7">
+        <v>6500000</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>19</v>
@@ -6747,175 +6661,205 @@
         <v>20</v>
       </c>
       <c r="D64" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" s="2">
-        <v>2</v>
-      </c>
-      <c r="F64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F64" s="2">
+        <v>65</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>13500000</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
-      <c r="E65" s="2">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>103</v>
+      <c r="G65" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>247</v>
+      <c r="A66" s="7">
+        <v>948000000</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D66" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>2</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>105</v>
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>7.9</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>245</v>
+      <c r="A67" s="7">
+        <v>142000000</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67" s="2">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>106</v>
+        <v>4</v>
+      </c>
+      <c r="F67" s="2">
+        <v>800</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
-        <v>248</v>
+      <c r="A68" s="7">
+        <v>200000000</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2">
+        <v>7</v>
+      </c>
+      <c r="F68" s="2">
+        <v>101</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7">
+        <v>13500000</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>300000000</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D70" s="2">
+        <v>5</v>
+      </c>
+      <c r="E70" s="2">
+        <v>5</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>70000000</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="2">
-        <v>4</v>
-      </c>
-      <c r="E69" s="2">
-        <v>2</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="2">
-        <v>4</v>
-      </c>
-      <c r="E70" s="2">
-        <v>2</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="C71" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D71" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2">
-        <v>3</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>111</v>
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0.4</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>251</v>
+      <c r="A72" s="7">
+        <v>45000000</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2">
-        <v>2</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>113</v>
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>252</v>
+      <c r="A73" s="7">
+        <v>9000000</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>19</v>
@@ -6924,283 +6868,343 @@
         <v>20</v>
       </c>
       <c r="D73" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="2">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>115</v>
+        <v>2</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
-        <v>253</v>
+      <c r="A74" s="7">
+        <v>350000000</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E74" s="2">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>85</v>
+        <v>4</v>
+      </c>
+      <c r="F74" s="2">
+        <v>223</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
-        <v>254</v>
+      <c r="A75" s="7">
+        <v>24000000</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D75" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" s="2">
         <v>2</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>118</v>
+      <c r="F75" s="2">
+        <v>186</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="7">
+        <v>20500000</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="2">
+        <v>3</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <v>100000000</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="2">
+        <v>5</v>
+      </c>
+      <c r="E77" s="2">
+        <v>5</v>
+      </c>
+      <c r="F77" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>8500000</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>1</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7">
+        <v>90000000</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="2">
+        <v>4</v>
+      </c>
+      <c r="E79" s="2">
+        <v>4</v>
+      </c>
+      <c r="F79" s="2">
+        <v>61</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>6500000</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="2">
+        <v>1</v>
+      </c>
+      <c r="E80" s="2">
+        <v>1</v>
+      </c>
+      <c r="F80" s="2">
+        <v>1</v>
+      </c>
+      <c r="G80" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>350000000</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2">
+        <v>4</v>
+      </c>
+      <c r="E81" s="2">
+        <v>4</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="7">
+        <v>350000000</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7">
+        <v>23500000</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" s="2">
+        <v>3</v>
+      </c>
+      <c r="E83" s="2">
+        <v>2</v>
+      </c>
+      <c r="F83" s="2">
         <v>230</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="2">
-        <v>3</v>
-      </c>
-      <c r="E77" s="2">
-        <v>2</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="4" t="s">
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>17500000</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2">
+        <v>4</v>
+      </c>
+      <c r="E84" s="2">
+        <v>2</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>90000000</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D81" s="2">
-        <v>4</v>
-      </c>
-      <c r="E81" s="2">
-        <v>4</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2">
-        <v>8</v>
-      </c>
-      <c r="E82" s="2">
-        <v>7</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="2">
-        <v>2</v>
-      </c>
-      <c r="E83" s="2">
-        <v>2</v>
-      </c>
-      <c r="F83" s="2"/>
-      <c r="G83" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D84" s="2">
+      <c r="D85" s="2">
+        <v>4</v>
+      </c>
+      <c r="E85" s="2">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="2">
+        <v>3</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2">
+        <v>150</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7">
+        <v>39000000</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="2">
         <v>5</v>
       </c>
-      <c r="E84" s="2">
-        <v>5</v>
-      </c>
-      <c r="F84" s="2"/>
-      <c r="G84" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="2">
-        <v>2</v>
-      </c>
       <c r="E87" s="2">
         <v>2</v>
       </c>
-      <c r="F87" s="2"/>
+      <c r="F87" s="2">
+        <v>150</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>203</v>
+      <c r="A88" s="7">
+        <v>200000000</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>8</v>
@@ -7209,275 +7213,320 @@
         <v>9</v>
       </c>
       <c r="D88" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E88" s="2">
-        <v>4</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>109</v>
+        <v>7</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>249</v>
+      <c r="A89" s="7">
+        <v>20500000</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="D89" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E89" s="2">
         <v>2</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>91</v>
+      <c r="F89" s="2">
+        <v>168</v>
+      </c>
+      <c r="G89" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>240</v>
+      <c r="A90" s="7">
+        <v>72000000</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D90" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E90" s="2">
-        <v>2</v>
-      </c>
-      <c r="F90" s="2"/>
-      <c r="G90" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F90" s="2">
+        <v>400</v>
+      </c>
+      <c r="G90" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>205</v>
+      <c r="A91" s="7">
+        <v>16000000</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="4" t="s">
-        <v>10</v>
+        <v>48</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2</v>
+      </c>
+      <c r="F91" s="2">
+        <v>150</v>
+      </c>
+      <c r="G91" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>208</v>
+      <c r="A92" s="7">
+        <v>27000000</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D92" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E92" s="2">
-        <v>6</v>
-      </c>
-      <c r="F92" s="2"/>
-      <c r="G92" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F92" s="2">
+        <v>150</v>
+      </c>
+      <c r="G92" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>257</v>
+      <c r="A93" s="7">
+        <v>150000000</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D93" s="2">
+        <v>4</v>
+      </c>
+      <c r="E93" s="2">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>22000000</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="2">
+        <v>4</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="7">
+        <v>16000000</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="2">
+        <v>3</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="7">
+        <v>40000000</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D96" s="2">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="7">
+        <v>79000000</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D97" s="2">
         <v>5</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E97" s="2">
         <v>5</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="2">
-        <v>2</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="2">
-        <v>4</v>
-      </c>
-      <c r="E95" s="2">
-        <v>4</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" s="2">
-        <v>1</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="2">
-        <v>1</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="2">
-        <v>4</v>
-      </c>
-      <c r="E97" s="2">
-        <v>4</v>
-      </c>
-      <c r="F97" s="2"/>
-      <c r="G97" s="4" t="s">
-        <v>37</v>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
-        <v>203</v>
+      <c r="A98" s="7">
+        <v>110000000</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
-        <v>243</v>
+      <c r="A99" s="7">
+        <v>350000000</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2">
+        <v>5</v>
+      </c>
+      <c r="E99" s="2">
+        <v>5</v>
+      </c>
+      <c r="F99" s="2">
+        <v>0</v>
+      </c>
+      <c r="G99" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>110000000</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="2">
+        <v>5</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2</v>
+      </c>
+      <c r="F100" s="2">
+        <v>0</v>
+      </c>
+      <c r="G100" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="7">
+        <v>29000000</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="2">
-        <v>3</v>
-      </c>
-      <c r="E99" s="2">
-        <v>2</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="2">
-        <v>4</v>
-      </c>
-      <c r="E100" s="2">
-        <v>2</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D101" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E101" s="2">
-        <v>4</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F101" s="2">
+        <v>0</v>
+      </c>
+      <c r="G101" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="7" t="s">
-        <v>244</v>
+      <c r="A102" s="7">
+        <v>26000000</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>19</v>
@@ -7486,58 +7535,67 @@
         <v>26</v>
       </c>
       <c r="D102" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E102" s="2">
         <v>2</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>99</v>
+      <c r="F102" s="2">
+        <v>0</v>
+      </c>
+      <c r="G102" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="7" t="s">
-        <v>247</v>
+      <c r="A103" s="7">
+        <v>10000000</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>26</v>
+        <v>143</v>
       </c>
       <c r="D103" s="2">
         <v>3</v>
       </c>
       <c r="E103" s="2">
-        <v>2</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>105</v>
+        <v>3</v>
+      </c>
+      <c r="F103" s="2">
+        <v>0</v>
+      </c>
+      <c r="G103" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>245</v>
+      <c r="A104" s="7">
+        <v>99000000</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E104" s="2">
-        <v>1</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>106</v>
+        <v>6</v>
+      </c>
+      <c r="F104" s="2">
+        <v>302</v>
+      </c>
+      <c r="G104" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>260</v>
+      <c r="A105" s="7">
+        <v>33500000</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>19</v>
@@ -7546,18 +7604,21 @@
         <v>26</v>
       </c>
       <c r="D105" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E105" s="2">
         <v>2</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>70</v>
+      <c r="F105" s="2">
+        <v>125</v>
+      </c>
+      <c r="G105" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="7" t="s">
-        <v>261</v>
+      <c r="A106" s="7">
+        <v>16000000</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>19</v>
@@ -7566,222 +7627,251 @@
         <v>26</v>
       </c>
       <c r="D106" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E106" s="2">
-        <v>2</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>70</v>
+        <v>1</v>
+      </c>
+      <c r="F106" s="2">
+        <v>130</v>
+      </c>
+      <c r="G106" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="7" t="s">
-        <v>220</v>
+      <c r="A107" s="7">
+        <v>15000000</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="2">
+        <v>3</v>
+      </c>
+      <c r="E107" s="2">
+        <v>2</v>
+      </c>
+      <c r="F107" s="2">
+        <v>160</v>
+      </c>
+      <c r="G107" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3</v>
+      </c>
+      <c r="E108" s="2">
+        <v>2</v>
+      </c>
+      <c r="F108" s="2">
+        <v>86</v>
+      </c>
+      <c r="G108" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>8500000</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D107" s="2">
-        <v>4</v>
-      </c>
-      <c r="E107" s="2">
-        <v>3</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D108" s="2">
-        <v>2</v>
-      </c>
-      <c r="E108" s="2">
-        <v>1</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="D109" s="2">
+        <v>2</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1</v>
+      </c>
+      <c r="F109" s="2">
+        <v>116</v>
+      </c>
+      <c r="G109" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="2">
+        <v>2</v>
+      </c>
+      <c r="E110" s="2">
+        <v>1</v>
+      </c>
+      <c r="F110" s="2">
+        <v>61</v>
+      </c>
+      <c r="G110" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>6500000</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2">
+        <v>190</v>
+      </c>
+      <c r="G111" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7">
+        <v>18500000</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="2">
+        <v>3</v>
+      </c>
+      <c r="E112" s="2">
+        <v>2</v>
+      </c>
+      <c r="F112" s="2">
+        <v>0</v>
+      </c>
+      <c r="G112" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>350000000</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="2">
-        <v>8</v>
-      </c>
-      <c r="E109" s="2">
-        <v>7</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D110" s="2">
-        <v>4</v>
-      </c>
-      <c r="E110" s="2">
-        <v>4</v>
-      </c>
-      <c r="F110" s="2"/>
-      <c r="G110" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D111" s="2">
-        <v>3</v>
-      </c>
-      <c r="E111" s="2">
-        <v>2</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D112" s="2">
-        <v>5</v>
-      </c>
-      <c r="E112" s="2">
-        <v>3</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="D113" s="2">
         <v>4</v>
       </c>
       <c r="E113" s="2">
-        <v>3</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>133</v>
+        <v>4</v>
+      </c>
+      <c r="F113" s="2">
+        <v>150</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
-        <v>232</v>
+      <c r="A114" s="7">
+        <v>22000000</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E114" s="2">
-        <v>3</v>
-      </c>
-      <c r="F114" s="2"/>
-      <c r="G114" s="4" t="s">
-        <v>72</v>
+        <v>2</v>
+      </c>
+      <c r="F114" s="2">
+        <v>0</v>
+      </c>
+      <c r="G114" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>245</v>
+      <c r="A115" s="7">
+        <v>28000000</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="D115" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115" s="2">
-        <v>2</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="F115" s="2">
+        <v>0</v>
+      </c>
+      <c r="G115" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>226</v>
+      <c r="A116" s="7">
+        <v>20000000</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D116" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E116" s="2">
-        <v>4</v>
-      </c>
-      <c r="F116" s="2"/>
-      <c r="G116" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F116" s="2">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="7" t="s">
-        <v>228</v>
+      <c r="A117" s="7">
+        <v>88000000</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>8</v>
@@ -7793,493 +7883,593 @@
         <v>5</v>
       </c>
       <c r="E117" s="2">
-        <v>3</v>
-      </c>
-      <c r="F117" s="2"/>
-      <c r="G117" s="4" t="s">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="F117" s="2">
+        <v>0</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="7" t="s">
-        <v>206</v>
+      <c r="A118" s="7">
+        <v>143000000</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D118" s="2">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2">
+        <v>0</v>
+      </c>
+      <c r="F118" s="2">
+        <v>0</v>
+      </c>
+      <c r="G118" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="7">
+        <v>70000000</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="2">
+        <v>4</v>
+      </c>
+      <c r="E119" s="2">
+        <v>2</v>
+      </c>
+      <c r="F119" s="2">
+        <v>600</v>
+      </c>
+      <c r="G119" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>20500000</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D120" s="2">
+        <v>4</v>
+      </c>
+      <c r="E120" s="2">
+        <v>4</v>
+      </c>
+      <c r="F120" s="2">
+        <v>0</v>
+      </c>
+      <c r="G120" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>25000000</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2">
+        <v>200</v>
+      </c>
+      <c r="G121" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>115000000</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2">
         <v>5</v>
       </c>
-      <c r="E118" s="2">
+      <c r="E122" s="2">
         <v>5</v>
       </c>
-      <c r="F118" s="2"/>
-      <c r="G118" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119" s="4" t="s">
+      <c r="F122" s="2">
+        <v>0</v>
+      </c>
+      <c r="G122" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>95000000</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D123" s="2">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2">
+        <v>3</v>
+      </c>
+      <c r="F123" s="2">
+        <v>0</v>
+      </c>
+      <c r="G123" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="7">
+        <v>180000000</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="2">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2">
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
+        <v>0</v>
+      </c>
+      <c r="G124" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>70000000</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2">
+        <v>4</v>
+      </c>
+      <c r="E125" s="2">
+        <v>2</v>
+      </c>
+      <c r="F125" s="2">
+        <v>54</v>
+      </c>
+      <c r="G125" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>5360000</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D126" s="2">
+        <v>2</v>
+      </c>
+      <c r="E126" s="2">
+        <v>2</v>
+      </c>
+      <c r="F126" s="2">
+        <v>110</v>
+      </c>
+      <c r="G126" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="2">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2">
+        <v>2</v>
+      </c>
+      <c r="F127" s="2">
+        <v>0</v>
+      </c>
+      <c r="G127" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>250000000</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D119" s="2">
-        <v>6</v>
-      </c>
-      <c r="E119" s="2">
-        <v>6</v>
-      </c>
-      <c r="F119" s="2"/>
-      <c r="G119" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D120" s="2">
-        <v>3</v>
-      </c>
-      <c r="E120" s="2">
-        <v>2</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D121" s="2">
-        <v>4</v>
-      </c>
-      <c r="E121" s="2">
-        <v>4</v>
-      </c>
-      <c r="F121" s="2"/>
-      <c r="G121" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="2">
-        <v>4</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-    </row>
-    <row r="123" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="2">
-        <v>3</v>
-      </c>
-      <c r="E123" s="2">
-        <v>2</v>
-      </c>
-      <c r="F123" s="2"/>
-    </row>
-    <row r="124" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D124" s="2">
-        <v>3</v>
-      </c>
-      <c r="E124" s="2">
-        <v>2</v>
-      </c>
-      <c r="F124" s="2"/>
-    </row>
-    <row r="125" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2">
-        <v>5</v>
-      </c>
-      <c r="E125" s="2">
-        <v>5</v>
-      </c>
-      <c r="F125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-    </row>
-    <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D127" s="2">
-        <v>5</v>
-      </c>
-      <c r="E127" s="2">
-        <v>5</v>
-      </c>
-      <c r="F127" s="2"/>
-    </row>
-    <row r="128" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="D128" s="2">
         <v>5</v>
       </c>
       <c r="E128" s="2">
-        <v>2</v>
-      </c>
-      <c r="F128" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="F128" s="2">
+        <v>0</v>
+      </c>
+      <c r="G128" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="7" t="s">
-        <v>245</v>
+      <c r="A129" s="7">
+        <v>9500000</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C129" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="2">
+        <v>2</v>
+      </c>
+      <c r="E129" s="2">
+        <v>2</v>
+      </c>
+      <c r="F129" s="2">
+        <v>186</v>
+      </c>
+      <c r="G129" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>20500000</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D130" s="2">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2">
+        <v>2</v>
+      </c>
+      <c r="F130" s="2">
+        <v>0</v>
+      </c>
+      <c r="G130" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>47000000</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="2">
+        <v>4</v>
+      </c>
+      <c r="E131" s="2">
+        <v>3</v>
+      </c>
+      <c r="F131" s="2">
+        <v>0</v>
+      </c>
+      <c r="G131" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>75000000</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="2">
+        <v>4</v>
+      </c>
+      <c r="E132" s="2">
+        <v>3</v>
+      </c>
+      <c r="F132" s="2">
+        <v>0</v>
+      </c>
+      <c r="G132" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>23000000</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D129" s="2">
-        <v>3</v>
-      </c>
-      <c r="E129" s="2">
-        <v>2</v>
-      </c>
-      <c r="F129" s="2"/>
-    </row>
-    <row r="130" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="4" t="s">
+      <c r="D133" s="2">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3</v>
+      </c>
+      <c r="F133" s="2">
+        <v>165</v>
+      </c>
+      <c r="G133" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>14500000</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2</v>
+      </c>
+      <c r="E134" s="2">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <v>0</v>
+      </c>
+      <c r="G134" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="7">
+        <v>3500000</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
+      <c r="E135" s="2">
+        <v>0</v>
+      </c>
+      <c r="F135" s="2">
+        <v>60</v>
+      </c>
+      <c r="G135" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>6000000</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <v>64</v>
+      </c>
+      <c r="G136" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="7">
+        <v>7850000</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <v>85</v>
+      </c>
+      <c r="G137" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>9000000</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D130" s="2">
-        <v>3</v>
-      </c>
-      <c r="E130" s="2">
-        <v>2</v>
-      </c>
-      <c r="F130" s="2"/>
-    </row>
-    <row r="131" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C131" s="4" t="s">
+      <c r="D138" s="2">
+        <v>2</v>
+      </c>
+      <c r="E138" s="2">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <v>0</v>
+      </c>
+      <c r="G138" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>110000000</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2">
+        <v>5</v>
+      </c>
+      <c r="E139" s="2">
+        <v>5</v>
+      </c>
+      <c r="F139" s="2">
+        <v>150</v>
+      </c>
+      <c r="G139" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="7">
+        <v>11000000</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="2">
+        <v>3</v>
+      </c>
+      <c r="E140" s="2">
+        <v>2</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0</v>
+      </c>
+      <c r="G140" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="7">
+        <v>150000000</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" s="2">
+        <v>4</v>
+      </c>
+      <c r="E141" s="2">
+        <v>5</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+      <c r="G141" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D131" s="2">
-        <v>3</v>
-      </c>
-      <c r="E131" s="2">
-        <v>2</v>
-      </c>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D132" s="2">
-        <v>3</v>
-      </c>
-      <c r="E132" s="2">
-        <v>3</v>
-      </c>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="2">
-        <v>6</v>
-      </c>
-      <c r="E133" s="2">
-        <v>6</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D134" s="2">
-        <v>5</v>
-      </c>
-      <c r="E134" s="2">
-        <v>2</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D135" s="2">
-        <v>2</v>
-      </c>
-      <c r="E135" s="2">
-        <v>1</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="2">
-        <v>3</v>
-      </c>
-      <c r="E136" s="2">
-        <v>2</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="2">
-        <v>3</v>
-      </c>
-      <c r="E137" s="2">
-        <v>2</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D138" s="2">
-        <v>2</v>
-      </c>
-      <c r="E138" s="2">
-        <v>1</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="2">
-        <v>2</v>
-      </c>
-      <c r="E139" s="2">
-        <v>1</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D140" s="2">
-        <v>1</v>
-      </c>
-      <c r="E140" s="2">
-        <v>1</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="2">
-        <v>3</v>
-      </c>
-      <c r="E141" s="2">
-        <v>2</v>
-      </c>
-      <c r="F141" s="2"/>
-      <c r="G141" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D142" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E142" s="2">
-        <v>6</v>
-      </c>
-      <c r="F142" s="2"/>
-      <c r="G142" s="4" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0</v>
+      </c>
+      <c r="G142" s="7">
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="7" t="s">
-        <v>203</v>
+      <c r="A143" s="7">
+        <v>110000000</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>8</v>
@@ -8288,18 +8478,21 @@
         <v>9</v>
       </c>
       <c r="D143" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E143" s="2">
         <v>4</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>70</v>
+      <c r="F143" s="2">
+        <v>75</v>
+      </c>
+      <c r="G143" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="7" t="s">
-        <v>264</v>
+      <c r="A144" s="7">
+        <v>8000000</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>19</v>
@@ -8308,125 +8501,159 @@
         <v>15</v>
       </c>
       <c r="D144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E144" s="2">
         <v>2</v>
       </c>
-      <c r="F144" s="2"/>
+      <c r="F144" s="2">
+        <v>0</v>
+      </c>
+      <c r="G144" s="7">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="145" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="7" t="s">
-        <v>274</v>
+      <c r="A145" s="7">
+        <v>180000000</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="D145" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E145" s="2">
-        <v>4</v>
-      </c>
-      <c r="F145" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F145" s="2">
+        <v>0</v>
+      </c>
+      <c r="G145" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="146" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="7" t="s">
-        <v>275</v>
+      <c r="A146" s="7">
+        <v>90000000</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C146" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" s="2">
+        <v>5</v>
+      </c>
+      <c r="E146" s="2">
+        <v>5</v>
+      </c>
+      <c r="F146" s="2">
+        <v>0</v>
+      </c>
+      <c r="G146" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="2">
+        <v>2</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2</v>
+      </c>
+      <c r="F147" s="2">
+        <v>0</v>
+      </c>
+      <c r="G147" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D148" s="2">
+        <v>5</v>
+      </c>
+      <c r="E148" s="2">
+        <v>5</v>
+      </c>
+      <c r="F148" s="2">
+        <v>0</v>
+      </c>
+      <c r="G148" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>14500000</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D146" s="2">
-        <v>2</v>
-      </c>
-      <c r="E146" s="2">
-        <v>1</v>
-      </c>
-      <c r="F146" s="2"/>
-    </row>
-    <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="4" t="s">
+      <c r="D149" s="2">
+        <v>2</v>
+      </c>
+      <c r="E149" s="2">
+        <v>3</v>
+      </c>
+      <c r="F149" s="2">
+        <v>223</v>
+      </c>
+      <c r="G149" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D147" s="2">
-        <v>5</v>
-      </c>
-      <c r="E147" s="2">
-        <v>2</v>
-      </c>
-      <c r="F147" s="2"/>
-    </row>
-    <row r="148" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D149" s="2">
-        <v>4</v>
-      </c>
-      <c r="E149" s="2">
-        <v>2</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="D150" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E150" s="2">
-        <v>4</v>
-      </c>
-      <c r="F150" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="F150" s="2">
+        <v>0</v>
+      </c>
+      <c r="G150" s="7">
+        <v>0</v>
+      </c>
     </row>
     <row r="151" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="7" t="s">
-        <v>260</v>
+      <c r="A151" s="7">
+        <v>7890000</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>19</v>
@@ -8435,1042 +8662,554 @@
         <v>15</v>
       </c>
       <c r="D151" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151" s="2">
         <v>1</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>158</v>
+      <c r="F151" s="2">
+        <v>130</v>
+      </c>
+      <c r="G151" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
-        <v>214</v>
+      <c r="A152" s="7">
+        <v>12000000</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C152" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="2">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2">
+        <v>3</v>
+      </c>
+      <c r="F152" s="2">
+        <v>0</v>
+      </c>
+      <c r="G152" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>120000000</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D153" s="2">
+        <v>4</v>
+      </c>
+      <c r="E153" s="2">
+        <v>4</v>
+      </c>
+      <c r="F153" s="2">
+        <v>0</v>
+      </c>
+      <c r="G153" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>20668800</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+      <c r="E154" s="2">
+        <v>0</v>
+      </c>
+      <c r="F154" s="2">
+        <v>0</v>
+      </c>
+      <c r="G154" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>35000000</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D155" s="2">
+        <v>4</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2</v>
+      </c>
+      <c r="F155" s="2">
+        <v>0</v>
+      </c>
+      <c r="G155" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>28500000</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D156" s="2">
+        <v>4</v>
+      </c>
+      <c r="E156" s="2">
+        <v>4</v>
+      </c>
+      <c r="F156" s="2">
+        <v>0</v>
+      </c>
+      <c r="G156" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="7">
+        <v>150000000</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D157" s="2">
         <v>5</v>
       </c>
-      <c r="E152" s="2">
+      <c r="E157" s="2">
         <v>5</v>
       </c>
-      <c r="F152" s="2"/>
-    </row>
-    <row r="153" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D153" s="2">
-        <v>3</v>
-      </c>
-      <c r="E153" s="2">
-        <v>3</v>
-      </c>
-      <c r="F153" s="2"/>
-    </row>
-    <row r="154" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" s="4" t="s">
+      <c r="F157" s="2">
+        <v>0</v>
+      </c>
+      <c r="G157" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="7">
+        <v>140000000</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D158" s="2">
+        <v>6</v>
+      </c>
+      <c r="E158" s="2">
+        <v>6</v>
+      </c>
+      <c r="F158" s="2">
+        <v>0</v>
+      </c>
+      <c r="G158" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>11850000</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2</v>
+      </c>
+      <c r="E159" s="2">
+        <v>2</v>
+      </c>
+      <c r="F159" s="2">
+        <v>2025</v>
+      </c>
+      <c r="G159" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>6750000</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1</v>
+      </c>
+      <c r="E160" s="2">
+        <v>1</v>
+      </c>
+      <c r="F160" s="2">
+        <v>116</v>
+      </c>
+      <c r="G160" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>8500000</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="4" t="s">
+      <c r="D161" s="2">
+        <v>2</v>
+      </c>
+      <c r="E161" s="2">
+        <v>2</v>
+      </c>
+      <c r="F161" s="2">
+        <v>60</v>
+      </c>
+      <c r="G161" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="7">
+        <v>15000000</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="2">
+        <v>3</v>
+      </c>
+      <c r="E162" s="2">
+        <v>4</v>
+      </c>
+      <c r="F162" s="2">
+        <v>85</v>
+      </c>
+      <c r="G162" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>7500000</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D163" s="2">
+        <v>1</v>
+      </c>
+      <c r="E163" s="2">
+        <v>1</v>
+      </c>
+      <c r="F163" s="2">
+        <v>165</v>
+      </c>
+      <c r="G163" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>9200000</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D164" s="2">
+        <v>2</v>
+      </c>
+      <c r="E164" s="2">
+        <v>2</v>
+      </c>
+      <c r="F164" s="2">
+        <v>0</v>
+      </c>
+      <c r="G164" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>35000000</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D165" s="2">
+        <v>4</v>
+      </c>
+      <c r="E165" s="2">
+        <v>4</v>
+      </c>
+      <c r="F165" s="2">
+        <v>95</v>
+      </c>
+      <c r="G165" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>13500000</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D166" s="2">
+        <v>2</v>
+      </c>
+      <c r="E166" s="2">
+        <v>2</v>
+      </c>
+      <c r="F166" s="2">
+        <v>0</v>
+      </c>
+      <c r="G166" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="7">
+        <v>60000000</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="2">
-        <v>5</v>
-      </c>
-      <c r="E155" s="2">
-        <v>5</v>
-      </c>
-      <c r="F155" s="2"/>
-    </row>
-    <row r="156" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="4" t="s">
+      <c r="D167" s="2">
+        <v>4</v>
+      </c>
+      <c r="E167" s="2">
+        <v>3</v>
+      </c>
+      <c r="F167" s="2">
+        <v>0</v>
+      </c>
+      <c r="G167" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>6730000</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2">
+        <v>1</v>
+      </c>
+      <c r="F168" s="2">
+        <v>0</v>
+      </c>
+      <c r="G168" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>6000000</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D156" s="2">
-        <v>4</v>
-      </c>
-      <c r="E156" s="2">
-        <v>2</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D157" s="2">
-        <v>2</v>
-      </c>
-      <c r="E157" s="2">
-        <v>2</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D158" s="2">
-        <v>3</v>
-      </c>
-      <c r="E158" s="2">
-        <v>2</v>
-      </c>
-      <c r="F158" s="2"/>
-    </row>
-    <row r="159" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D159" s="2">
-        <v>5</v>
-      </c>
-      <c r="E159" s="2">
-        <v>5</v>
-      </c>
-      <c r="F159" s="2"/>
-    </row>
-    <row r="160" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D160" s="2">
-        <v>2</v>
-      </c>
-      <c r="E160" s="2">
-        <v>2</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D161" s="2">
-        <v>3</v>
-      </c>
-      <c r="E161" s="2">
-        <v>2</v>
-      </c>
-      <c r="F161" s="2"/>
-    </row>
-    <row r="162" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D162" s="2">
-        <v>4</v>
-      </c>
-      <c r="E162" s="2">
-        <v>3</v>
-      </c>
-      <c r="F162" s="2"/>
-    </row>
-    <row r="163" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D163" s="2">
-        <v>4</v>
-      </c>
-      <c r="E163" s="2">
-        <v>3</v>
-      </c>
-      <c r="F163" s="2"/>
-    </row>
-    <row r="164" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D164" s="2">
-        <v>3</v>
-      </c>
-      <c r="E164" s="2">
-        <v>3</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D165" s="2">
-        <v>2</v>
-      </c>
-      <c r="E165" s="2">
-        <v>1</v>
-      </c>
-      <c r="F165" s="2"/>
-    </row>
-    <row r="166" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C166" s="4" t="s">
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
+      <c r="E169" s="2">
+        <v>1</v>
+      </c>
+      <c r="F169" s="2">
+        <v>60</v>
+      </c>
+      <c r="G169" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>9500000</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D166" s="2">
-        <v>1</v>
-      </c>
-      <c r="E166" s="2"/>
-      <c r="F166" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="2">
-        <v>1</v>
-      </c>
-      <c r="E167" s="2">
-        <v>1</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D168" s="2">
-        <v>1</v>
-      </c>
-      <c r="E168" s="2">
-        <v>1</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D169" s="2">
-        <v>2</v>
-      </c>
-      <c r="E169" s="2">
-        <v>1</v>
-      </c>
-      <c r="F169" s="2"/>
-    </row>
-    <row r="170" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>13</v>
-      </c>
       <c r="D170" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E170" s="2">
-        <v>5</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="F170" s="2">
+        <v>0</v>
+      </c>
+      <c r="G170" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="7" t="s">
-        <v>288</v>
+      <c r="A171" s="7">
+        <v>28000000</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="D171" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E171" s="2">
-        <v>2</v>
-      </c>
-      <c r="F171" s="2"/>
-      <c r="G171" s="4" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F171" s="2">
+        <v>234</v>
+      </c>
+      <c r="G171" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D172" s="2">
-        <v>4</v>
-      </c>
-      <c r="E172" s="2">
-        <v>5</v>
-      </c>
-      <c r="F172" s="2"/>
+      <c r="A172"/>
+      <c r="B172"/>
+      <c r="C172"/>
+      <c r="D172"/>
+      <c r="E172"/>
+      <c r="F172"/>
+      <c r="G172"/>
     </row>
     <row r="173" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D173" s="2">
-        <v>2</v>
-      </c>
-      <c r="E173" s="2">
-        <v>1</v>
-      </c>
-      <c r="F173" s="2"/>
-      <c r="G173" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="A173"/>
+      <c r="B173"/>
+      <c r="C173"/>
+      <c r="D173"/>
+      <c r="E173"/>
+      <c r="F173"/>
+      <c r="G173"/>
     </row>
     <row r="174" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="2">
-        <v>5</v>
-      </c>
-      <c r="E174" s="2">
-        <v>4</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>181</v>
-      </c>
+      <c r="A174"/>
+      <c r="B174"/>
+      <c r="C174"/>
+      <c r="D174"/>
+      <c r="E174"/>
+      <c r="F174"/>
+      <c r="G174"/>
     </row>
     <row r="175" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" s="2">
-        <v>2</v>
-      </c>
-      <c r="E175" s="2">
-        <v>2</v>
-      </c>
-      <c r="F175" s="2"/>
-      <c r="G175" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="A175"/>
+      <c r="B175"/>
+      <c r="C175"/>
+      <c r="D175"/>
+      <c r="E175"/>
+      <c r="F175"/>
+      <c r="G175"/>
     </row>
     <row r="176" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D177" s="2">
-        <v>5</v>
-      </c>
-      <c r="E177" s="2">
-        <v>5</v>
-      </c>
-      <c r="F177" s="2"/>
-    </row>
-    <row r="178" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D178" s="2">
-        <v>2</v>
-      </c>
-      <c r="E178" s="2">
-        <v>2</v>
-      </c>
-      <c r="F178" s="2"/>
-    </row>
-    <row r="179" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D179" s="2">
-        <v>5</v>
-      </c>
-      <c r="E179" s="2">
-        <v>5</v>
-      </c>
-      <c r="F179" s="2"/>
-    </row>
-    <row r="180" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="2">
-        <v>2</v>
-      </c>
-      <c r="E180" s="2">
-        <v>3</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D181" s="2">
-        <v>2</v>
-      </c>
-      <c r="E181" s="2">
-        <v>2</v>
-      </c>
-      <c r="F181" s="2"/>
-    </row>
-    <row r="182" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D182" s="2">
-        <v>1</v>
-      </c>
-      <c r="E182" s="2">
-        <v>1</v>
-      </c>
-      <c r="F182" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D183" s="2">
-        <v>3</v>
-      </c>
-      <c r="E183" s="2">
-        <v>3</v>
-      </c>
-      <c r="F183" s="2"/>
-    </row>
-    <row r="184" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D184" s="2">
-        <v>4</v>
-      </c>
-      <c r="E184" s="2">
-        <v>4</v>
-      </c>
-      <c r="F184" s="2"/>
-    </row>
-    <row r="185" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D186" s="2">
-        <v>4</v>
-      </c>
-      <c r="E186" s="2">
-        <v>2</v>
-      </c>
-      <c r="F186" s="2"/>
-    </row>
-    <row r="187" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D187" s="2">
-        <v>4</v>
-      </c>
-      <c r="E187" s="2">
-        <v>4</v>
-      </c>
-      <c r="F187" s="2"/>
-    </row>
-    <row r="188" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D188" s="2">
-        <v>5</v>
-      </c>
-      <c r="E188" s="2">
-        <v>5</v>
-      </c>
-      <c r="F188" s="2"/>
-    </row>
-    <row r="189" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D189" s="2">
-        <v>6</v>
-      </c>
-      <c r="E189" s="2">
-        <v>6</v>
-      </c>
-      <c r="F189" s="2"/>
-      <c r="G189" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" s="2">
-        <v>2</v>
-      </c>
-      <c r="E190" s="2">
-        <v>2</v>
-      </c>
-      <c r="F190" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" s="2">
-        <v>1</v>
-      </c>
-      <c r="E191" s="2">
-        <v>1</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D192" s="2">
-        <v>2</v>
-      </c>
-      <c r="E192" s="2">
-        <v>2</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D193" s="2">
-        <v>3</v>
-      </c>
-      <c r="E193" s="2">
-        <v>4</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D194" s="2">
-        <v>1</v>
-      </c>
-      <c r="E194" s="2">
-        <v>1</v>
-      </c>
-      <c r="F194" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D195" s="2">
-        <v>2</v>
-      </c>
-      <c r="E195" s="2">
-        <v>2</v>
-      </c>
-      <c r="F195" s="2"/>
-    </row>
-    <row r="196" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D196" s="2">
-        <v>4</v>
-      </c>
-      <c r="E196" s="2">
-        <v>4</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D197" s="2">
-        <v>2</v>
-      </c>
-      <c r="E197" s="2">
-        <v>2</v>
-      </c>
-      <c r="F197" s="2"/>
-    </row>
-    <row r="198" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D198" s="2">
-        <v>2</v>
-      </c>
-      <c r="E198" s="2">
-        <v>1</v>
-      </c>
-      <c r="F198" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D199" s="2">
-        <v>4</v>
-      </c>
-      <c r="E199" s="2">
-        <v>3</v>
-      </c>
-      <c r="F199" s="2"/>
-      <c r="G199" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D200" s="2">
-        <v>1</v>
-      </c>
-      <c r="E200" s="2">
-        <v>1</v>
-      </c>
-      <c r="F200" s="2"/>
-    </row>
-    <row r="201" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" s="2">
-        <v>1</v>
-      </c>
-      <c r="E201" s="2">
-        <v>1</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D202" s="2">
-        <v>8</v>
-      </c>
-      <c r="E202" s="2">
-        <v>7</v>
-      </c>
-      <c r="F202" s="2"/>
-      <c r="G202" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D203" s="2">
-        <v>2</v>
-      </c>
-      <c r="E203" s="2">
-        <v>2</v>
-      </c>
-      <c r="F203" s="2"/>
-    </row>
-    <row r="204" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D204" s="2">
-        <v>2</v>
-      </c>
-      <c r="E204" s="2">
-        <v>1</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D205" s="2">
-        <v>4</v>
-      </c>
-      <c r="E205" s="2">
-        <v>3</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
+      <c r="A176"/>
+      <c r="B176"/>
+      <c r="C176"/>
+      <c r="D176"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+    </row>
+    <row r="177" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Nairobi property.xlsx
+++ b/Nairobi property.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremiah Muraguri\Desktop\Nairobi_property\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1721754-A55C-44C5-87BC-2AE2BDED4D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177A7A04-9CF0-48A1-86F0-77620F25AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nairobi propertyprices - Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Cleaned worksheet" sheetId="2" r:id="rId2"/>
     <sheet name="Pricing Analysis" sheetId="3" r:id="rId3"/>
     <sheet name="Location Trends" sheetId="4" r:id="rId4"/>
+    <sheet name="Regional_insights" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Cleaned worksheet'!$A$1:$J$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="215">
   <si>
     <t>AVERAGE PRICE SHOWN BELOW</t>
   </si>
@@ -679,6 +680,12 @@
   </si>
   <si>
     <t>Count of Price(Ksh)</t>
+  </si>
+  <si>
+    <t>StdDevp of Price(Ksh)</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -3144,6 +3151,538 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Nairobi property.xlsx]Regional_insights!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Variability</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> in Prices</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Regional_insights!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Regional_insights!$I$14:$I$40</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>Muthaiga North</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kabete</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Waithaka</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kyuna</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Lower Kabete</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Ongata Rongai</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Muthaiga</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Parklands</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Mombasa Rd</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Syokimau</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Thome</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Thigiri</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Ngong Rd</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Nairobi West</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Riverside</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Kilimani</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Karen</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Kileleshwa</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Loresho</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Kiambu Road</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Lavington</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nyari</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Runda</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Westlands</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Kitisuru</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Rosslyn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Regional_insights!$J$14:$J$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2070000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10303788.407937907</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26090107.128685437</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>31231661.28573161</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36538517.690240256</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47191100.855987668</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48425684.042664796</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>48626481.97227516</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49497474.683058329</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97467943.448089644</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107801268.40886094</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>134293026.67632779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>354000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49C3-4455-ACF8-D3D2485F831C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1795522911"/>
+        <c:axId val="1795522495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1795522911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1795522495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1795522495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1795522911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3225,6 +3764,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4777,6 +5356,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5002,6 +6084,145 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1333501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF785A39-F670-4911-878B-72F5A8E1FAEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162551" y="190500"/>
+          <a:ext cx="3048000" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The heat map shows the regional distribution of different property</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> types in Nairobi. Green shows the highest whereas red shows the lowest distribution.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-KE" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAEACD7-A121-4351-AF8F-0A40FAE9CF43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremiah Muraguri" refreshedDate="45721.520559143515" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="170" xr:uid="{39FD2FEE-F5FA-4442-B3CD-6684293B0ECE}">
   <cacheSource type="worksheet">
@@ -6607,7 +7828,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F14D0833-C7E0-41A1-8739-00D56DDE2191}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F14D0833-C7E0-41A1-8739-00D56DDE2191}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="B3:C9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
@@ -6709,7 +7930,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CC6D7D1-124A-4A20-BC10-EA955BF5B5FD}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CC6D7D1-124A-4A20-BC10-EA955BF5B5FD}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="K18:Q46" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
@@ -6946,7 +8167,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982E3B73-89B0-49FC-B012-FBFF7DF3EF3A}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{982E3B73-89B0-49FC-B012-FBFF7DF3EF3A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B2:C29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField dataField="1" numFmtId="4" showAll="0"/>
@@ -7087,6 +8308,395 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Average of Price(Ksh)" fld="0" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{546861E1-52F1-46BC-BC5F-7A462197C51D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:G29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="27">
+        <item x="16"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="i" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="5" selected="0">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+            </reference>
+            <reference field="2" count="26">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+              <x v="14"/>
+              <x v="15"/>
+              <x v="16"/>
+              <x v="17"/>
+              <x v="18"/>
+              <x v="19"/>
+              <x v="20"/>
+              <x v="21"/>
+              <x v="22"/>
+              <x v="23"/>
+              <x v="24"/>
+              <x v="25"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1B5EABA-49ED-4164-9B20-1B7CE914EDED}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="I13:J40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="27">
+        <item x="16"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="StdDevp of Price(Ksh)" fld="0" subtotal="stdDevp" baseField="2" baseItem="13"/>
   </dataFields>
   <chartFormats count="1">
     <chartFormat chart="0" format="0" series="1">
@@ -11560,7 +13170,7 @@
   </sheetPr>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A154" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16052,7 +17662,7 @@
   </sheetPr>
   <dimension ref="B2:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
@@ -16740,4 +18350,697 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC076A7-2059-4738-BF68-FE17352D0A8C}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19">
+        <v>10</v>
+      </c>
+      <c r="F4" s="19">
+        <v>2</v>
+      </c>
+      <c r="G4" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19">
+        <v>4</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="19">
+        <v>19</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="19">
+        <v>26</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19">
+        <v>4</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="19">
+        <v>12</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
+        <v>16</v>
+      </c>
+      <c r="F10" s="19">
+        <v>2</v>
+      </c>
+      <c r="G10" s="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>3</v>
+      </c>
+      <c r="G11" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19">
+        <v>2</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19">
+        <v>2</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19">
+        <v>3</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="19">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="19">
+        <v>6</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19">
+        <v>6</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19">
+        <v>2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19">
+        <v>13</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19">
+        <v>13</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="19">
+        <v>1</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19">
+        <v>2</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19">
+        <v>2</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="19">
+        <v>1</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" s="19">
+        <v>2070000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="19">
+        <v>1</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="19">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="19">
+        <v>21</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19">
+        <v>2</v>
+      </c>
+      <c r="F28" s="19">
+        <v>3</v>
+      </c>
+      <c r="G28" s="19">
+        <v>26</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="19">
+        <v>10303788.407937907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="19">
+        <v>92</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19">
+        <v>61</v>
+      </c>
+      <c r="F29" s="19">
+        <v>15</v>
+      </c>
+      <c r="G29" s="19">
+        <v>170</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="19">
+        <v>26090107.128685437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="19">
+        <v>31231661.28573161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I31" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="19">
+        <v>36538517.690240256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I32" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="19">
+        <v>47191100.855987668</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" s="19">
+        <v>48425684.042664796</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I34" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="19">
+        <v>48626481.97227516</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I35" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="19">
+        <v>49497474.683058329</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I36" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="19">
+        <v>97467943.448089644</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I37" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="19">
+        <v>107801268.40886094</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="19">
+        <v>134293026.67632779</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="J39" s="19">
+        <v>354000000</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I40" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="19">
+        <v>111802339.69803701</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B3:F28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="13"/>
+        <cfvo type="num" val="26"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Nairobi property.xlsx
+++ b/Nairobi property.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr hidePivotFieldList="1"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremiah Muraguri\Desktop\Nairobi_property\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177A7A04-9CF0-48A1-86F0-77620F25AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7073F99B-86E2-4449-A046-017BD548F36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nairobi propertyprices - Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Cleaned worksheet" sheetId="2" r:id="rId2"/>
-    <sheet name="Pricing Analysis" sheetId="3" r:id="rId3"/>
-    <sheet name="Location Trends" sheetId="4" r:id="rId4"/>
-    <sheet name="Regional_insights" sheetId="5" r:id="rId5"/>
+    <sheet name="Price_tier" sheetId="7" r:id="rId3"/>
+    <sheet name="Pricing Analysis" sheetId="3" r:id="rId4"/>
+    <sheet name="Location Trends" sheetId="4" r:id="rId5"/>
+    <sheet name="Regional_insights" sheetId="5" r:id="rId6"/>
+    <sheet name="Market_segmentation" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1">'Cleaned worksheet'!$A$1:$J$205</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Price_tier!$A$1:$I$205</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="221">
   <si>
     <t>AVERAGE PRICE SHOWN BELOW</t>
   </si>
@@ -687,6 +691,24 @@
   <si>
     <t>i</t>
   </si>
+  <si>
+    <t>Price Tier</t>
+  </si>
+  <si>
+    <t>Luxury</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Mid-Range</t>
+  </si>
+  <si>
+    <t>Count of propertyType</t>
+  </si>
+  <si>
+    <t>Count of Location</t>
+  </si>
 </sst>
 </file>
 
@@ -740,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -779,6 +801,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3683,6 +3708,442 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Nairobi property.xlsx]Market_segmentation!PivotTable1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Market</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> Segmentation by Price Tiers</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12255555555555556"/>
+          <c:y val="9.8116499823550335E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+          <a:sp3d contourW="25400">
+            <a:contourClr>
+              <a:schemeClr val="lt1"/>
+            </a:contourClr>
+          </a:sp3d>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-KE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Market_segmentation!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Market_segmentation!$B$3:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Budget</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Luxury</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mid-Range</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Market_segmentation!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-811E-4DAA-8247-02E8FF764ED8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-KE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3804,6 +4265,46 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5859,6 +6360,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6223,6 +7243,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EE7154-73AE-4AE5-8AE4-22D6BA6EE92B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremiah Muraguri" refreshedDate="45721.520559143515" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="170" xr:uid="{39FD2FEE-F5FA-4442-B3CD-6684293B0ECE}">
   <cacheSource type="worksheet">
@@ -6292,6 +7353,49 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jeremiah Muraguri" refreshedDate="45842.732517939818" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="170" xr:uid="{EBEAA5D3-3B4C-4502-86E2-6F63F9159A79}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H171" sheet="Price_tier"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Price(Ksh)" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3500000" maxValue="948000000"/>
+    </cacheField>
+    <cacheField name="propertyType" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Location" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Bedroom(Cleaned)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+    </cacheField>
+    <cacheField name="Bathroom(Cleaned)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="8"/>
+    </cacheField>
+    <cacheField name="House Size(mÂ²)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="2025"/>
+    </cacheField>
+    <cacheField name="Land Size(acres)" numFmtId="4">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="7.9"/>
+    </cacheField>
+    <cacheField name="Price Tier" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Luxury"/>
+        <s v="Budget"/>
+        <s v="Mid-Range"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="170">
   <r>
@@ -7823,6 +8927,1711 @@
     <n v="3"/>
     <n v="234"/>
     <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="170">
+  <r>
+    <n v="350000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="30000000"/>
+    <s v="Vacant Land"/>
+    <s v="Karen"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="325000000"/>
+    <s v="Vacant Land"/>
+    <s v="Westlands"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="80000000"/>
+    <s v="Townhouse"/>
+    <s v="Kitisuru"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25500000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="230"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="300000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="160000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="105"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="150000000"/>
+    <s v="Townhouse"/>
+    <s v="Thigiri"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="42000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="280"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="115300000"/>
+    <s v="Townhouse"/>
+    <s v="Kyuna"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="586"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="115000000"/>
+    <s v="Townhouse"/>
+    <s v="Nyari"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="35000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0.25"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="220000000"/>
+    <s v="Townhouse"/>
+    <s v="Nyari"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0.75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="90"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7200000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="70"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="200000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="68000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="399"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="28390000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="203"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="17500000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="230"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28390000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="203"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="115000000"/>
+    <s v="Townhouse"/>
+    <s v="Nyari"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="18000000"/>
+    <s v="Vacant Land"/>
+    <s v="Loresho"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="200000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38000000"/>
+    <s v="Townhouse"/>
+    <s v="Kitisuru"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="78000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="300"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="75000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="423"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="32000000"/>
+    <s v="Apartment"/>
+    <s v="Parklands"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="283"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="140000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="385"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="50000000"/>
+    <s v="Vacant Land"/>
+    <s v="Kitisuru"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="70000000"/>
+    <s v="Vacant Land"/>
+    <s v="Loresho"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.56000000000000005"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="12000000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="322550000"/>
+    <s v="Townhouse"/>
+    <s v="Kitisuru"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1.75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="380000000"/>
+    <s v="Vacant Land"/>
+    <s v="Westlands"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8700000"/>
+    <s v="Apartment"/>
+    <s v="Riverside"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="50"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="160000000"/>
+    <s v="Townhouse"/>
+    <s v="Muthaiga North"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="240000000"/>
+    <s v="Vacant Land"/>
+    <s v="Rosslyn"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="12000000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="90"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8000000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="57"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12600000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="65"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="18330000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="141"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25500000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="260"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="75000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="140000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20500000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="186"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="105"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="16285499"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="90"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="96"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="23500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="159"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="86"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="33500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="302"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="16000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="160"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="21500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="139"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="22500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="202"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="16000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="125"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="45000000"/>
+    <s v="Vacant Land"/>
+    <s v="Karen"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="24000000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="223"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="17500000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="230"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="62500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="445"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="34000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="338"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5700000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="48"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6500000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="65"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="13500000"/>
+    <s v="Apartment"/>
+    <s v="Riverside"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="101"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="948000000"/>
+    <s v="Vacant Land"/>
+    <s v="Rosslyn"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7.9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="142000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="800"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="200000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="101"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="13500000"/>
+    <s v="Apartment"/>
+    <s v="Riverside"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="300000000"/>
+    <s v="Townhouse"/>
+    <s v="Muthaiga"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0.56000000000000005"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70000000"/>
+    <s v="Vacant Land"/>
+    <s v="Loresho"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="45000000"/>
+    <s v="Vacant Land"/>
+    <s v="Kitisuru"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="9000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="350000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="223"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="24000000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="186"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20500000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="100000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="86"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="8500000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="90000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="61"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="6500000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="350000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="350000000"/>
+    <s v="Vacant Land"/>
+    <s v="Westlands"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="23500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="230"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="17500000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="90000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="25000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="39000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="200000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="8"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20500000"/>
+    <s v="Apartment"/>
+    <s v="Riverside"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="168"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="72000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="400"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="16000000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="27000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="150000000"/>
+    <s v="Townhouse"/>
+    <s v="Loresho"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="16000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="40000000"/>
+    <s v="Apartment"/>
+    <s v="Riverside"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="79000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="110000000"/>
+    <s v="Vacant Land"/>
+    <s v="Lavington"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="350000000"/>
+    <s v="Townhouse"/>
+    <s v="Kitisuru"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="110000000"/>
+    <s v="Townhouse"/>
+    <s v="Kabete"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="29000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="26000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="10000000"/>
+    <s v="Apartment"/>
+    <s v="Thome"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="99000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="302"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="33500000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="125"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="16000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="130"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="15000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="160"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="15000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="86"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8500000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="116"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="61"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6500000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="190"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="18500000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="350000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="22000000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28000000"/>
+    <s v="Townhouse"/>
+    <s v="Kiambu Road"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="88000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="143000000"/>
+    <s v="Commercial Property"/>
+    <s v="Kilimani"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="600"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="20500000"/>
+    <s v="Townhouse"/>
+    <s v="Ongata Rongai"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="25000000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="200"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="115000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="95000000"/>
+    <s v="Townhouse"/>
+    <s v="Lower Kabete"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="180000000"/>
+    <s v="Vacant Land"/>
+    <s v="Kileleshwa"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="70000000"/>
+    <s v="Townhouse"/>
+    <s v="Westlands"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="54"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="5360000"/>
+    <s v="Apartment"/>
+    <s v="Ngong Rd"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="110"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12000000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="250000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="9500000"/>
+    <s v="Apartment"/>
+    <s v="Ngong Rd"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="186"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="20500000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="47000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="75000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="23000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="165"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="14500000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="3500000"/>
+    <s v="Apartment"/>
+    <s v="Nairobi West"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6000000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="64"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7850000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="85"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="110000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="150"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11000000"/>
+    <s v="Apartment"/>
+    <s v="Syokimau"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="150000000"/>
+    <s v="Townhouse"/>
+    <s v="Thigiri"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="15000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0.55000000000000004"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="110000000"/>
+    <s v="Townhouse"/>
+    <s v="Runda"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="75"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="8000000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0.6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="180000000"/>
+    <s v="Vacant Land"/>
+    <s v="Lavington"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="90000000"/>
+    <s v="Townhouse"/>
+    <s v="Westlands"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="12000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="60000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="14500000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="223"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12000000"/>
+    <s v="Apartment"/>
+    <s v="Lavington"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7890000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="130"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="12000000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="120000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="20668800"/>
+    <s v="Industrial Property"/>
+    <s v="Mombasa Rd"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0.7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="35000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="28500000"/>
+    <s v="Townhouse"/>
+    <s v="Kiambu Road"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="150000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="140000000"/>
+    <s v="Townhouse"/>
+    <s v="Kiambu Road"/>
+    <n v="6"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="11850000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2025"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6750000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="116"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="8500000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="15000000"/>
+    <s v="Apartment"/>
+    <s v="Kileleshwa"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="85"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="7500000"/>
+    <s v="Apartment"/>
+    <s v="Waithaka"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="165"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9200000"/>
+    <s v="Apartment"/>
+    <s v="Kilimani"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="35000000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="95"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="13500000"/>
+    <s v="Apartment"/>
+    <s v="Riverside"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="60000000"/>
+    <s v="Townhouse"/>
+    <s v="Karen"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="0.5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="6730000"/>
+    <s v="Townhouse"/>
+    <s v="Lavington"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="6000000"/>
+    <s v="Apartment"/>
+    <s v="Westlands"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="60"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="9500000"/>
+    <s v="Apartment"/>
+    <s v="Nairobi West"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="28000000"/>
+    <s v="Townhouse"/>
+    <s v="Kiambu Road"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="234"/>
+    <n v="0"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -8333,6 +11142,172 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1B5EABA-49ED-4164-9B20-1B7CE914EDED}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="I13:J40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="27">
+        <item x="16"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="20"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="19"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="StdDevp of Price(Ksh)" fld="0" subtotal="stdDevp" baseField="2" baseItem="13"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{546861E1-52F1-46BC-BC5F-7A462197C51D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A1:G29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
@@ -8555,138 +11530,38 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F1B5EABA-49ED-4164-9B20-1B7CE914EDED}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="I13:J40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField dataField="1" numFmtId="4" showAll="0"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{65349A29-6ABF-481D-AF34-9820214F08EB}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J2:K6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="4" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="27">
-        <item x="16"/>
-        <item x="1"/>
-        <item x="18"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="20"/>
-        <item x="24"/>
-        <item x="15"/>
-        <item x="13"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="8"/>
-        <item x="19"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item x="0"/>
-        <item x="23"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="3" showAll="0"/>
     <pivotField numFmtId="4" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="2"/>
+    <field x="7"/>
   </rowFields>
-  <rowItems count="27">
-    <i>
-      <x v="12"/>
-    </i>
+  <rowItems count="4">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
       <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="19"/>
     </i>
     <i t="grand">
       <x/>
@@ -8696,10 +11571,74 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="StdDevp of Price(Ksh)" fld="0" subtotal="stdDevp" baseField="2" baseItem="13"/>
+    <dataField name="Count of Location" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{542486A3-0ABA-4929-A839-3F88E1D5BA1F}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="B2:C6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField numFmtId="4" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of propertyType" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9011,7 +11950,7 @@
   </sheetPr>
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A202" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13168,9 +16107,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G205"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13180,7 +16121,7 @@
     <col min="7" max="7" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
@@ -13202,8 +16143,9 @@
       <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>350000000</v>
       </c>
@@ -13226,7 +16168,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>30000000</v>
       </c>
@@ -13249,7 +16191,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>325000000</v>
       </c>
@@ -13272,7 +16214,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>80000000</v>
       </c>
@@ -13295,7 +16237,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>25500000</v>
       </c>
@@ -13318,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>300000000</v>
       </c>
@@ -13341,7 +16283,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>160000000</v>
       </c>
@@ -13364,7 +16306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>9500000</v>
       </c>
@@ -13387,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>150000000</v>
       </c>
@@ -13410,7 +16352,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>42000000</v>
       </c>
@@ -13433,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>115300000</v>
       </c>
@@ -13456,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>115000000</v>
       </c>
@@ -13479,7 +16421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>35000000</v>
       </c>
@@ -13502,7 +16444,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>220000000</v>
       </c>
@@ -13525,7 +16467,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>9000000</v>
       </c>
@@ -17425,6 +20367,4510 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE06061-2990-48D7-8148-0059058302FE}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:H205"/>
+  <sheetViews>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>350000000</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>30000000</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>325000000</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>80000000</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8">
+        <v>5</v>
+      </c>
+      <c r="E5" s="8">
+        <v>5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>25500000</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4</v>
+      </c>
+      <c r="E6" s="8">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>230</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>300000000</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6</v>
+      </c>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>160000000</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8">
+        <v>4</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>9500000</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>105</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>150000000</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4</v>
+      </c>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>42000000</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8">
+        <v>280</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>115300000</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5</v>
+      </c>
+      <c r="E12" s="8">
+        <v>4</v>
+      </c>
+      <c r="F12" s="8">
+        <v>586</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>115000000</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5</v>
+      </c>
+      <c r="E13" s="8">
+        <v>5</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>35000000</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="8">
+        <v>4</v>
+      </c>
+      <c r="E14" s="8">
+        <v>4</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>220000000</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8">
+        <v>6</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="H15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>9000000</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>90</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7200000</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>70</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>68000000</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8">
+        <v>4</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3</v>
+      </c>
+      <c r="F19" s="8">
+        <v>399</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>28390000</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>203</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>17500000</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8">
+        <v>4</v>
+      </c>
+      <c r="E21" s="8">
+        <v>3</v>
+      </c>
+      <c r="F21" s="8">
+        <v>230</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>28390000</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8">
+        <v>3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>4</v>
+      </c>
+      <c r="F22" s="8">
+        <v>203</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>115000000</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5</v>
+      </c>
+      <c r="E23" s="8">
+        <v>4</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>18000000</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="8">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8">
+        <v>7</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="9">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>38000000</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="8">
+        <v>4</v>
+      </c>
+      <c r="E26" s="8">
+        <v>4</v>
+      </c>
+      <c r="F26" s="8">
+        <v>0</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>78000000</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="8">
+        <v>5</v>
+      </c>
+      <c r="E27" s="8">
+        <v>3</v>
+      </c>
+      <c r="F27" s="8">
+        <v>300</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>75000000</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="8">
+        <v>5</v>
+      </c>
+      <c r="E28" s="8">
+        <v>4</v>
+      </c>
+      <c r="F28" s="8">
+        <v>423</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>32000000</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>283</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>140000000</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="8">
+        <v>5</v>
+      </c>
+      <c r="E30" s="8">
+        <v>3</v>
+      </c>
+      <c r="F30" s="8">
+        <v>385</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>50000000</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>70000000</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>150</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>322550000</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="8">
+        <v>4</v>
+      </c>
+      <c r="E34" s="8">
+        <v>3</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="H34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>380000000</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="9">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>8700000</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
+        <v>50</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>160000000</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="8">
+        <v>4</v>
+      </c>
+      <c r="E37" s="8">
+        <v>3</v>
+      </c>
+      <c r="F37" s="8">
+        <v>0</v>
+      </c>
+      <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>240000000</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="8">
+        <v>0</v>
+      </c>
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="9">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="8">
+        <v>2</v>
+      </c>
+      <c r="E39" s="8">
+        <v>2</v>
+      </c>
+      <c r="F39" s="8">
+        <v>90</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>8000000</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>57</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>12600000</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8">
+        <v>90</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>7000000</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="8">
+        <v>2</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8">
+        <v>65</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>18330000</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="8">
+        <v>2</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1</v>
+      </c>
+      <c r="F43" s="8">
+        <v>141</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>25500000</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="8">
+        <v>4</v>
+      </c>
+      <c r="E44" s="8">
+        <v>4</v>
+      </c>
+      <c r="F44" s="8">
+        <v>260</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>75000000</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5</v>
+      </c>
+      <c r="E45" s="8">
+        <v>4</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>140000000</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="8">
+        <v>5</v>
+      </c>
+      <c r="E46" s="8">
+        <v>3</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>20500000</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="8">
+        <v>3</v>
+      </c>
+      <c r="E47" s="8">
+        <v>2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>186</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>9000000</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="8">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8">
+        <v>2</v>
+      </c>
+      <c r="F48" s="8">
+        <v>105</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>16285499</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="8">
+        <v>2</v>
+      </c>
+      <c r="E49" s="8">
+        <v>1</v>
+      </c>
+      <c r="F49" s="8">
+        <v>90</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>12500000</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="8">
+        <v>2</v>
+      </c>
+      <c r="E50" s="8">
+        <v>1</v>
+      </c>
+      <c r="F50" s="8">
+        <v>96</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>23500000</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="8">
+        <v>3</v>
+      </c>
+      <c r="E51" s="8">
+        <v>2</v>
+      </c>
+      <c r="F51" s="8">
+        <v>159</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>9000000</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2</v>
+      </c>
+      <c r="E52" s="8">
+        <v>2</v>
+      </c>
+      <c r="F52" s="8">
+        <v>86</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>33500000</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5</v>
+      </c>
+      <c r="E53" s="8">
+        <v>2</v>
+      </c>
+      <c r="F53" s="8">
+        <v>302</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>16000000</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="8">
+        <v>3</v>
+      </c>
+      <c r="E54" s="8">
+        <v>2</v>
+      </c>
+      <c r="F54" s="8">
+        <v>160</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>21500000</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2</v>
+      </c>
+      <c r="E55" s="8">
+        <v>1</v>
+      </c>
+      <c r="F55" s="8">
+        <v>139</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>22500000</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="8">
+        <v>3</v>
+      </c>
+      <c r="E56" s="8">
+        <v>2</v>
+      </c>
+      <c r="F56" s="8">
+        <v>202</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>16000000</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2</v>
+      </c>
+      <c r="E57" s="8">
+        <v>1</v>
+      </c>
+      <c r="F57" s="8">
+        <v>125</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>45000000</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8">
+        <v>0</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H58" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>24000000</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" s="8">
+        <v>4</v>
+      </c>
+      <c r="E59" s="8">
+        <v>2</v>
+      </c>
+      <c r="F59" s="8">
+        <v>223</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>17500000</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="8">
+        <v>4</v>
+      </c>
+      <c r="E60" s="8">
+        <v>2</v>
+      </c>
+      <c r="F60" s="8">
+        <v>230</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>62500000</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="8">
+        <v>5</v>
+      </c>
+      <c r="E61" s="8">
+        <v>3</v>
+      </c>
+      <c r="F61" s="8">
+        <v>445</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>34000000</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="8">
+        <v>4</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2</v>
+      </c>
+      <c r="F62" s="8">
+        <v>338</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>5700000</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="8">
+        <v>1</v>
+      </c>
+      <c r="E63" s="8">
+        <v>1</v>
+      </c>
+      <c r="F63" s="8">
+        <v>48</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>6500000</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+      <c r="E64" s="8">
+        <v>1</v>
+      </c>
+      <c r="F64" s="8">
+        <v>65</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>13500000</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D65" s="8">
+        <v>2</v>
+      </c>
+      <c r="E65" s="8">
+        <v>2</v>
+      </c>
+      <c r="F65" s="8">
+        <v>101</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>948000000</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0</v>
+      </c>
+      <c r="G66" s="9">
+        <v>7.9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>142000000</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="8">
+        <v>4</v>
+      </c>
+      <c r="E67" s="8">
+        <v>4</v>
+      </c>
+      <c r="F67" s="8">
+        <v>800</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H67" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="8">
+        <v>8</v>
+      </c>
+      <c r="E68" s="8">
+        <v>7</v>
+      </c>
+      <c r="F68" s="8">
+        <v>101</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>13500000</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D69" s="8">
+        <v>2</v>
+      </c>
+      <c r="E69" s="8">
+        <v>2</v>
+      </c>
+      <c r="F69" s="8">
+        <v>0</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>300000000</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D70" s="8">
+        <v>5</v>
+      </c>
+      <c r="E70" s="8">
+        <v>5</v>
+      </c>
+      <c r="F70" s="8">
+        <v>0</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H70" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>70000000</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" s="8">
+        <v>0</v>
+      </c>
+      <c r="E71" s="8">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8">
+        <v>0</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="H71" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>45000000</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="8">
+        <v>0</v>
+      </c>
+      <c r="E72" s="8">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8">
+        <v>0</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H72" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>9000000</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="8">
+        <v>2</v>
+      </c>
+      <c r="E73" s="8">
+        <v>2</v>
+      </c>
+      <c r="F73" s="8">
+        <v>0</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>350000000</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="8">
+        <v>4</v>
+      </c>
+      <c r="E74" s="8">
+        <v>4</v>
+      </c>
+      <c r="F74" s="8">
+        <v>223</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>24000000</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" s="8">
+        <v>4</v>
+      </c>
+      <c r="E75" s="8">
+        <v>2</v>
+      </c>
+      <c r="F75" s="8">
+        <v>186</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>20500000</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="8">
+        <v>3</v>
+      </c>
+      <c r="E76" s="8">
+        <v>2</v>
+      </c>
+      <c r="F76" s="8">
+        <v>0</v>
+      </c>
+      <c r="G76" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H76" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>100000000</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="8">
+        <v>5</v>
+      </c>
+      <c r="E77" s="8">
+        <v>5</v>
+      </c>
+      <c r="F77" s="8">
+        <v>86</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>8500000</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="8">
+        <v>1</v>
+      </c>
+      <c r="F78" s="8">
+        <v>0</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H78" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>90000000</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="8">
+        <v>4</v>
+      </c>
+      <c r="E79" s="8">
+        <v>4</v>
+      </c>
+      <c r="F79" s="8">
+        <v>61</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>6500000</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" s="8">
+        <v>1</v>
+      </c>
+      <c r="E80" s="8">
+        <v>1</v>
+      </c>
+      <c r="F80" s="8">
+        <v>1</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H80" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>350000000</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="8">
+        <v>4</v>
+      </c>
+      <c r="E81" s="8">
+        <v>4</v>
+      </c>
+      <c r="F81" s="8">
+        <v>0</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
+        <v>350000000</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="8">
+        <v>0</v>
+      </c>
+      <c r="E82" s="8">
+        <v>0</v>
+      </c>
+      <c r="F82" s="8">
+        <v>0</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9">
+        <v>23500000</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="8">
+        <v>3</v>
+      </c>
+      <c r="E83" s="8">
+        <v>2</v>
+      </c>
+      <c r="F83" s="8">
+        <v>230</v>
+      </c>
+      <c r="G83" s="9">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
+        <v>17500000</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="8">
+        <v>4</v>
+      </c>
+      <c r="E84" s="8">
+        <v>2</v>
+      </c>
+      <c r="F84" s="8">
+        <v>0</v>
+      </c>
+      <c r="G84" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H84" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9">
+        <v>90000000</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="8">
+        <v>4</v>
+      </c>
+      <c r="E85" s="8">
+        <v>4</v>
+      </c>
+      <c r="F85" s="8">
+        <v>0</v>
+      </c>
+      <c r="G85" s="9">
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
+        <v>25000000</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="8">
+        <v>3</v>
+      </c>
+      <c r="E86" s="8">
+        <v>2</v>
+      </c>
+      <c r="F86" s="8">
+        <v>150</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9">
+        <v>39000000</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="8">
+        <v>5</v>
+      </c>
+      <c r="E87" s="8">
+        <v>2</v>
+      </c>
+      <c r="F87" s="8">
+        <v>150</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
+        <v>200000000</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="8">
+        <v>8</v>
+      </c>
+      <c r="E88" s="8">
+        <v>7</v>
+      </c>
+      <c r="F88" s="8">
+        <v>0</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H88" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9">
+        <v>20500000</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D89" s="8">
+        <v>3</v>
+      </c>
+      <c r="E89" s="8">
+        <v>2</v>
+      </c>
+      <c r="F89" s="8">
+        <v>168</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
+        <v>72000000</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" s="8">
+        <v>4</v>
+      </c>
+      <c r="E90" s="8">
+        <v>3</v>
+      </c>
+      <c r="F90" s="8">
+        <v>400</v>
+      </c>
+      <c r="G90" s="9">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9">
+        <v>16000000</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2</v>
+      </c>
+      <c r="E91" s="8">
+        <v>2</v>
+      </c>
+      <c r="F91" s="8">
+        <v>150</v>
+      </c>
+      <c r="G91" s="9">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9">
+        <v>27000000</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="8">
+        <v>3</v>
+      </c>
+      <c r="E92" s="8">
+        <v>2</v>
+      </c>
+      <c r="F92" s="8">
+        <v>150</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9">
+        <v>150000000</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="8">
+        <v>4</v>
+      </c>
+      <c r="E93" s="8">
+        <v>4</v>
+      </c>
+      <c r="F93" s="8">
+        <v>0</v>
+      </c>
+      <c r="G93" s="9">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9">
+        <v>22000000</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="8">
+        <v>4</v>
+      </c>
+      <c r="E94" s="8">
+        <v>0</v>
+      </c>
+      <c r="F94" s="8">
+        <v>0</v>
+      </c>
+      <c r="G94" s="9">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9">
+        <v>16000000</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="8">
+        <v>3</v>
+      </c>
+      <c r="E95" s="8">
+        <v>2</v>
+      </c>
+      <c r="F95" s="8">
+        <v>0</v>
+      </c>
+      <c r="G95" s="9">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9">
+        <v>40000000</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D96" s="8">
+        <v>3</v>
+      </c>
+      <c r="E96" s="8">
+        <v>2</v>
+      </c>
+      <c r="F96" s="8">
+        <v>0</v>
+      </c>
+      <c r="G96" s="9">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9">
+        <v>79000000</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="8">
+        <v>5</v>
+      </c>
+      <c r="E97" s="8">
+        <v>5</v>
+      </c>
+      <c r="F97" s="8">
+        <v>0</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9">
+        <v>110000000</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
+        <v>0</v>
+      </c>
+      <c r="F98" s="8">
+        <v>0</v>
+      </c>
+      <c r="G98" s="9">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9">
+        <v>350000000</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="8">
+        <v>5</v>
+      </c>
+      <c r="E99" s="8">
+        <v>5</v>
+      </c>
+      <c r="F99" s="8">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9">
+        <v>110000000</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100" s="8">
+        <v>5</v>
+      </c>
+      <c r="E100" s="8">
+        <v>2</v>
+      </c>
+      <c r="F100" s="8">
+        <v>0</v>
+      </c>
+      <c r="G100" s="9">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9">
+        <v>29000000</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="8">
+        <v>3</v>
+      </c>
+      <c r="E101" s="8">
+        <v>2</v>
+      </c>
+      <c r="F101" s="8">
+        <v>0</v>
+      </c>
+      <c r="G101" s="9">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9">
+        <v>26000000</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="8">
+        <v>3</v>
+      </c>
+      <c r="E102" s="8">
+        <v>2</v>
+      </c>
+      <c r="F102" s="8">
+        <v>0</v>
+      </c>
+      <c r="G102" s="9">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="9">
+        <v>10000000</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D103" s="8">
+        <v>3</v>
+      </c>
+      <c r="E103" s="8">
+        <v>3</v>
+      </c>
+      <c r="F103" s="8">
+        <v>0</v>
+      </c>
+      <c r="G103" s="9">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="9">
+        <v>99000000</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="8">
+        <v>6</v>
+      </c>
+      <c r="E104" s="8">
+        <v>6</v>
+      </c>
+      <c r="F104" s="8">
+        <v>302</v>
+      </c>
+      <c r="G104" s="9">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="9">
+        <v>33500000</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="8">
+        <v>5</v>
+      </c>
+      <c r="E105" s="8">
+        <v>2</v>
+      </c>
+      <c r="F105" s="8">
+        <v>125</v>
+      </c>
+      <c r="G105" s="9">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="9">
+        <v>16000000</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" s="8">
+        <v>2</v>
+      </c>
+      <c r="E106" s="8">
+        <v>1</v>
+      </c>
+      <c r="F106" s="8">
+        <v>130</v>
+      </c>
+      <c r="G106" s="9">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D107" s="8">
+        <v>3</v>
+      </c>
+      <c r="E107" s="8">
+        <v>2</v>
+      </c>
+      <c r="F107" s="8">
+        <v>160</v>
+      </c>
+      <c r="G107" s="9">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="8">
+        <v>3</v>
+      </c>
+      <c r="E108" s="8">
+        <v>2</v>
+      </c>
+      <c r="F108" s="8">
+        <v>86</v>
+      </c>
+      <c r="G108" s="9">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="9">
+        <v>8500000</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="8">
+        <v>2</v>
+      </c>
+      <c r="E109" s="8">
+        <v>1</v>
+      </c>
+      <c r="F109" s="8">
+        <v>116</v>
+      </c>
+      <c r="G109" s="9">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="8">
+        <v>2</v>
+      </c>
+      <c r="E110" s="8">
+        <v>1</v>
+      </c>
+      <c r="F110" s="8">
+        <v>61</v>
+      </c>
+      <c r="G110" s="9">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="9">
+        <v>6500000</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="8">
+        <v>1</v>
+      </c>
+      <c r="E111" s="8">
+        <v>1</v>
+      </c>
+      <c r="F111" s="8">
+        <v>190</v>
+      </c>
+      <c r="G111" s="9">
+        <v>0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="9">
+        <v>18500000</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="8">
+        <v>3</v>
+      </c>
+      <c r="E112" s="8">
+        <v>2</v>
+      </c>
+      <c r="F112" s="8">
+        <v>0</v>
+      </c>
+      <c r="G112" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H112" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="9">
+        <v>350000000</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="8">
+        <v>4</v>
+      </c>
+      <c r="E113" s="8">
+        <v>4</v>
+      </c>
+      <c r="F113" s="8">
+        <v>150</v>
+      </c>
+      <c r="G113" s="9">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="9">
+        <v>22000000</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="8">
+        <v>3</v>
+      </c>
+      <c r="E114" s="8">
+        <v>2</v>
+      </c>
+      <c r="F114" s="8">
+        <v>0</v>
+      </c>
+      <c r="G114" s="9">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="9">
+        <v>28000000</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" s="8">
+        <v>4</v>
+      </c>
+      <c r="E115" s="8">
+        <v>4</v>
+      </c>
+      <c r="F115" s="8">
+        <v>0</v>
+      </c>
+      <c r="G115" s="9">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="9">
+        <v>20000000</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" s="8">
+        <v>2</v>
+      </c>
+      <c r="E116" s="8">
+        <v>1</v>
+      </c>
+      <c r="F116" s="8">
+        <v>0</v>
+      </c>
+      <c r="G116" s="9">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="9">
+        <v>88000000</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="8">
+        <v>5</v>
+      </c>
+      <c r="E117" s="8">
+        <v>2</v>
+      </c>
+      <c r="F117" s="8">
+        <v>0</v>
+      </c>
+      <c r="G117" s="9">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="9">
+        <v>143000000</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="8">
+        <v>0</v>
+      </c>
+      <c r="E118" s="8">
+        <v>0</v>
+      </c>
+      <c r="F118" s="8">
+        <v>0</v>
+      </c>
+      <c r="G118" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H118" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9">
+        <v>70000000</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="8">
+        <v>4</v>
+      </c>
+      <c r="E119" s="8">
+        <v>2</v>
+      </c>
+      <c r="F119" s="8">
+        <v>600</v>
+      </c>
+      <c r="G119" s="9">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="9">
+        <v>20500000</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D120" s="8">
+        <v>4</v>
+      </c>
+      <c r="E120" s="8">
+        <v>4</v>
+      </c>
+      <c r="F120" s="8">
+        <v>0</v>
+      </c>
+      <c r="G120" s="9">
+        <v>0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="9">
+        <v>25000000</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D121" s="8">
+        <v>2</v>
+      </c>
+      <c r="E121" s="8">
+        <v>1</v>
+      </c>
+      <c r="F121" s="8">
+        <v>200</v>
+      </c>
+      <c r="G121" s="9">
+        <v>0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="9">
+        <v>115000000</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="8">
+        <v>5</v>
+      </c>
+      <c r="E122" s="8">
+        <v>5</v>
+      </c>
+      <c r="F122" s="8">
+        <v>0</v>
+      </c>
+      <c r="G122" s="9">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="9">
+        <v>95000000</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" s="8">
+        <v>3</v>
+      </c>
+      <c r="E123" s="8">
+        <v>3</v>
+      </c>
+      <c r="F123" s="8">
+        <v>0</v>
+      </c>
+      <c r="G123" s="9">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="9">
+        <v>180000000</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="8">
+        <v>0</v>
+      </c>
+      <c r="E124" s="8">
+        <v>0</v>
+      </c>
+      <c r="F124" s="8">
+        <v>0</v>
+      </c>
+      <c r="G124" s="9">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="9">
+        <v>70000000</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D125" s="8">
+        <v>4</v>
+      </c>
+      <c r="E125" s="8">
+        <v>2</v>
+      </c>
+      <c r="F125" s="8">
+        <v>54</v>
+      </c>
+      <c r="G125" s="9">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="9">
+        <v>5360000</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D126" s="8">
+        <v>2</v>
+      </c>
+      <c r="E126" s="8">
+        <v>2</v>
+      </c>
+      <c r="F126" s="8">
+        <v>110</v>
+      </c>
+      <c r="G126" s="9">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D127" s="8">
+        <v>3</v>
+      </c>
+      <c r="E127" s="8">
+        <v>2</v>
+      </c>
+      <c r="F127" s="8">
+        <v>0</v>
+      </c>
+      <c r="G127" s="9">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="9">
+        <v>250000000</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="8">
+        <v>5</v>
+      </c>
+      <c r="E128" s="8">
+        <v>5</v>
+      </c>
+      <c r="F128" s="8">
+        <v>0</v>
+      </c>
+      <c r="G128" s="9">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="9">
+        <v>9500000</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D129" s="8">
+        <v>2</v>
+      </c>
+      <c r="E129" s="8">
+        <v>2</v>
+      </c>
+      <c r="F129" s="8">
+        <v>186</v>
+      </c>
+      <c r="G129" s="9">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9">
+        <v>20500000</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" s="8">
+        <v>3</v>
+      </c>
+      <c r="E130" s="8">
+        <v>2</v>
+      </c>
+      <c r="F130" s="8">
+        <v>0</v>
+      </c>
+      <c r="G130" s="9">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9">
+        <v>47000000</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" s="8">
+        <v>4</v>
+      </c>
+      <c r="E131" s="8">
+        <v>3</v>
+      </c>
+      <c r="F131" s="8">
+        <v>0</v>
+      </c>
+      <c r="G131" s="9">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="9">
+        <v>75000000</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="8">
+        <v>4</v>
+      </c>
+      <c r="E132" s="8">
+        <v>3</v>
+      </c>
+      <c r="F132" s="8">
+        <v>0</v>
+      </c>
+      <c r="G132" s="9">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="9">
+        <v>23000000</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="8">
+        <v>3</v>
+      </c>
+      <c r="E133" s="8">
+        <v>3</v>
+      </c>
+      <c r="F133" s="8">
+        <v>165</v>
+      </c>
+      <c r="G133" s="9">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="9">
+        <v>14500000</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="8">
+        <v>2</v>
+      </c>
+      <c r="E134" s="8">
+        <v>1</v>
+      </c>
+      <c r="F134" s="8">
+        <v>0</v>
+      </c>
+      <c r="G134" s="9">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="9">
+        <v>3500000</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="8">
+        <v>1</v>
+      </c>
+      <c r="E135" s="8">
+        <v>0</v>
+      </c>
+      <c r="F135" s="8">
+        <v>60</v>
+      </c>
+      <c r="G135" s="9">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="8">
+        <v>1</v>
+      </c>
+      <c r="E136" s="8">
+        <v>1</v>
+      </c>
+      <c r="F136" s="8">
+        <v>64</v>
+      </c>
+      <c r="G136" s="9">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
+        <v>7850000</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D137" s="8">
+        <v>1</v>
+      </c>
+      <c r="E137" s="8">
+        <v>1</v>
+      </c>
+      <c r="F137" s="8">
+        <v>85</v>
+      </c>
+      <c r="G137" s="9">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="9">
+        <v>9000000</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" s="8">
+        <v>2</v>
+      </c>
+      <c r="E138" s="8">
+        <v>1</v>
+      </c>
+      <c r="F138" s="8">
+        <v>0</v>
+      </c>
+      <c r="G138" s="9">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="9">
+        <v>110000000</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="8">
+        <v>5</v>
+      </c>
+      <c r="E139" s="8">
+        <v>5</v>
+      </c>
+      <c r="F139" s="8">
+        <v>150</v>
+      </c>
+      <c r="G139" s="9">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="9">
+        <v>11000000</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D140" s="8">
+        <v>3</v>
+      </c>
+      <c r="E140" s="8">
+        <v>2</v>
+      </c>
+      <c r="F140" s="8">
+        <v>0</v>
+      </c>
+      <c r="G140" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H140" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9">
+        <v>150000000</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D141" s="8">
+        <v>4</v>
+      </c>
+      <c r="E141" s="8">
+        <v>5</v>
+      </c>
+      <c r="F141" s="8">
+        <v>0</v>
+      </c>
+      <c r="G141" s="9">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="8">
+        <v>2</v>
+      </c>
+      <c r="E142" s="8">
+        <v>1</v>
+      </c>
+      <c r="F142" s="8">
+        <v>0</v>
+      </c>
+      <c r="G142" s="9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H142" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="9">
+        <v>110000000</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="8">
+        <v>5</v>
+      </c>
+      <c r="E143" s="8">
+        <v>4</v>
+      </c>
+      <c r="F143" s="8">
+        <v>75</v>
+      </c>
+      <c r="G143" s="9">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="9">
+        <v>8000000</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="8">
+        <v>2</v>
+      </c>
+      <c r="E144" s="8">
+        <v>2</v>
+      </c>
+      <c r="F144" s="8">
+        <v>0</v>
+      </c>
+      <c r="G144" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="H144" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="9">
+        <v>180000000</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D145" s="8">
+        <v>0</v>
+      </c>
+      <c r="E145" s="8">
+        <v>0</v>
+      </c>
+      <c r="F145" s="8">
+        <v>0</v>
+      </c>
+      <c r="G145" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H145" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="9">
+        <v>90000000</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="8">
+        <v>5</v>
+      </c>
+      <c r="E146" s="8">
+        <v>5</v>
+      </c>
+      <c r="F146" s="8">
+        <v>0</v>
+      </c>
+      <c r="G146" s="9">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D147" s="8">
+        <v>2</v>
+      </c>
+      <c r="E147" s="8">
+        <v>2</v>
+      </c>
+      <c r="F147" s="8">
+        <v>0</v>
+      </c>
+      <c r="G147" s="9">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="9">
+        <v>60000000</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="8">
+        <v>5</v>
+      </c>
+      <c r="E148" s="8">
+        <v>5</v>
+      </c>
+      <c r="F148" s="8">
+        <v>0</v>
+      </c>
+      <c r="G148" s="9">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="9">
+        <v>14500000</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" s="8">
+        <v>2</v>
+      </c>
+      <c r="E149" s="8">
+        <v>3</v>
+      </c>
+      <c r="F149" s="8">
+        <v>223</v>
+      </c>
+      <c r="G149" s="9">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D150" s="8">
+        <v>2</v>
+      </c>
+      <c r="E150" s="8">
+        <v>2</v>
+      </c>
+      <c r="F150" s="8">
+        <v>0</v>
+      </c>
+      <c r="G150" s="9">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="9">
+        <v>7890000</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D151" s="8">
+        <v>1</v>
+      </c>
+      <c r="E151" s="8">
+        <v>1</v>
+      </c>
+      <c r="F151" s="8">
+        <v>130</v>
+      </c>
+      <c r="G151" s="9">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="9">
+        <v>12000000</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D152" s="8">
+        <v>3</v>
+      </c>
+      <c r="E152" s="8">
+        <v>3</v>
+      </c>
+      <c r="F152" s="8">
+        <v>0</v>
+      </c>
+      <c r="G152" s="9">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="9">
+        <v>120000000</v>
+      </c>
+      <c r="B153" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D153" s="8">
+        <v>4</v>
+      </c>
+      <c r="E153" s="8">
+        <v>4</v>
+      </c>
+      <c r="F153" s="8">
+        <v>0</v>
+      </c>
+      <c r="G153" s="9">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9">
+        <v>20668800</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D154" s="8">
+        <v>0</v>
+      </c>
+      <c r="E154" s="8">
+        <v>0</v>
+      </c>
+      <c r="F154" s="8">
+        <v>0</v>
+      </c>
+      <c r="G154" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="H154" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="9">
+        <v>35000000</v>
+      </c>
+      <c r="B155" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D155" s="8">
+        <v>4</v>
+      </c>
+      <c r="E155" s="8">
+        <v>2</v>
+      </c>
+      <c r="F155" s="8">
+        <v>0</v>
+      </c>
+      <c r="G155" s="9">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="9">
+        <v>28500000</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" s="8">
+        <v>4</v>
+      </c>
+      <c r="E156" s="8">
+        <v>4</v>
+      </c>
+      <c r="F156" s="8">
+        <v>0</v>
+      </c>
+      <c r="G156" s="9">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="9">
+        <v>150000000</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="8">
+        <v>5</v>
+      </c>
+      <c r="E157" s="8">
+        <v>5</v>
+      </c>
+      <c r="F157" s="8">
+        <v>0</v>
+      </c>
+      <c r="G157" s="9">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="9">
+        <v>140000000</v>
+      </c>
+      <c r="B158" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" s="8">
+        <v>6</v>
+      </c>
+      <c r="E158" s="8">
+        <v>6</v>
+      </c>
+      <c r="F158" s="8">
+        <v>0</v>
+      </c>
+      <c r="G158" s="9">
+        <v>1</v>
+      </c>
+      <c r="H158" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="9">
+        <v>11850000</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D159" s="8">
+        <v>2</v>
+      </c>
+      <c r="E159" s="8">
+        <v>2</v>
+      </c>
+      <c r="F159" s="8">
+        <v>2025</v>
+      </c>
+      <c r="G159" s="9">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="9">
+        <v>6750000</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D160" s="8">
+        <v>1</v>
+      </c>
+      <c r="E160" s="8">
+        <v>1</v>
+      </c>
+      <c r="F160" s="8">
+        <v>116</v>
+      </c>
+      <c r="G160" s="9">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="9">
+        <v>8500000</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D161" s="8">
+        <v>2</v>
+      </c>
+      <c r="E161" s="8">
+        <v>2</v>
+      </c>
+      <c r="F161" s="8">
+        <v>60</v>
+      </c>
+      <c r="G161" s="9">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="9">
+        <v>15000000</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="8">
+        <v>3</v>
+      </c>
+      <c r="E162" s="8">
+        <v>4</v>
+      </c>
+      <c r="F162" s="8">
+        <v>85</v>
+      </c>
+      <c r="G162" s="9">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="9">
+        <v>7500000</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D163" s="8">
+        <v>1</v>
+      </c>
+      <c r="E163" s="8">
+        <v>1</v>
+      </c>
+      <c r="F163" s="8">
+        <v>165</v>
+      </c>
+      <c r="G163" s="9">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="9">
+        <v>9200000</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D164" s="8">
+        <v>2</v>
+      </c>
+      <c r="E164" s="8">
+        <v>2</v>
+      </c>
+      <c r="F164" s="8">
+        <v>0</v>
+      </c>
+      <c r="G164" s="9">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="9">
+        <v>35000000</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D165" s="8">
+        <v>4</v>
+      </c>
+      <c r="E165" s="8">
+        <v>4</v>
+      </c>
+      <c r="F165" s="8">
+        <v>95</v>
+      </c>
+      <c r="G165" s="9">
+        <v>0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="9">
+        <v>13500000</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="8">
+        <v>2</v>
+      </c>
+      <c r="E166" s="8">
+        <v>2</v>
+      </c>
+      <c r="F166" s="8">
+        <v>0</v>
+      </c>
+      <c r="G166" s="9">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="9">
+        <v>60000000</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="8">
+        <v>4</v>
+      </c>
+      <c r="E167" s="8">
+        <v>3</v>
+      </c>
+      <c r="F167" s="8">
+        <v>0</v>
+      </c>
+      <c r="G167" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H167" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
+        <v>6730000</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D168" s="8">
+        <v>1</v>
+      </c>
+      <c r="E168" s="8">
+        <v>1</v>
+      </c>
+      <c r="F168" s="8">
+        <v>0</v>
+      </c>
+      <c r="G168" s="9">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
+        <v>6000000</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D169" s="8">
+        <v>1</v>
+      </c>
+      <c r="E169" s="8">
+        <v>1</v>
+      </c>
+      <c r="F169" s="8">
+        <v>60</v>
+      </c>
+      <c r="G169" s="9">
+        <v>0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="9">
+        <v>9500000</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D170" s="8">
+        <v>2</v>
+      </c>
+      <c r="E170" s="8">
+        <v>2</v>
+      </c>
+      <c r="F170" s="8">
+        <v>0</v>
+      </c>
+      <c r="G170" s="9">
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="9">
+        <v>28000000</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" s="8">
+        <v>4</v>
+      </c>
+      <c r="E171" s="8">
+        <v>3</v>
+      </c>
+      <c r="F171" s="8">
+        <v>234</v>
+      </c>
+      <c r="G171" s="9">
+        <v>0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -17655,7 +25101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
@@ -18352,11 +25798,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC076A7-2059-4738-BF68-FE17352D0A8C}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -19043,4 +26489,97 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC32E71-1FE4-486B-ADEE-3DBBB3440908}">
+  <dimension ref="B2:K6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="19">
+        <v>92</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="K3" s="19">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="19">
+        <v>41</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="19">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="19">
+        <v>37</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>170</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="19">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>